--- a/Technology/Software/Amazon.xlsx
+++ b/Technology/Software/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23576EE0-99BB-644D-8371-DE56A0CDEB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E1D3CC-807A-BD4B-AE96-55FE4E31B4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -898,7 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -962,18 +962,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1011,12 +999,6 @@
     <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1035,6 +1017,26 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2433,9 +2435,11 @@
     <v>Powered by Refinitiv</v>
     <v>146.57</v>
     <v>81.430000000000007</v>
-    <v>1.2601</v>
-    <v>-1.9</v>
-    <v>-1.6081000000000002E-2</v>
+    <v>1.2545999999999999</v>
+    <v>5.1100000000000003</v>
+    <v>4.4435000000000002E-2</v>
+    <v>0.48</v>
+    <v>3.9960000000000004E-3</v>
     <v>USD</v>
     <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content that it purchased for resale and products offered by third-party sellers. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, and Ring, and it develops and produces media content. It also offers subscription services such as Amazon Prime, a membership program. Its segments include North America, International and Amazon Web Services (AWS). The AWS segment consists of global sales of compute, storage, database, and other services for start-ups, enterprises, government agencies, and academic institutions. It provides advertising services to sellers, vendors, publishers, authors, and others, through programs, such as sponsored advertisements, display, and video advertising. Customers access its offerings through websites, mobile applications, Alexa, devices, streaming, and physically visiting its stores.</v>
     <v>1465000</v>
@@ -2443,24 +2447,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>410 Terry Ave N, SEATTLE, WA, 98109 US</v>
-    <v>118.31</v>
+    <v>121.5</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45065.999922823437</v>
+    <v>45072.999993078127</v>
     <v>0</v>
-    <v>115.7</v>
-    <v>1192766000000</v>
+    <v>116.02</v>
+    <v>1179941000000</v>
     <v>AMAZON.COM, INC.</v>
     <v>AMAZON.COM, INC.</v>
-    <v>118.16</v>
-    <v>281.85230000000001</v>
-    <v>118.15</v>
-    <v>116.25</v>
+    <v>116.04</v>
+    <v>278.82170000000002</v>
+    <v>115</v>
+    <v>120.11</v>
+    <v>120.59</v>
     <v>10260350000</v>
     <v>AMZN</v>
     <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>81464</v>
-    <v>67955965</v>
+    <v>96779889</v>
+    <v>71000047</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -2492,6 +2497,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2512,6 +2519,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2528,7 +2536,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2539,13 +2547,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2611,13 +2622,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2662,6 +2679,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2669,6 +2689,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3033,7 +3056,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AA85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF94" sqref="AF94"/>
+      <selection pane="bottomRight" activeCell="AE92" sqref="AE92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4288,103 +4311,103 @@
         <v>100</v>
       </c>
       <c r="B13" s="15">
-        <f>B12/B3</f>
+        <f t="shared" ref="B13:Z13" si="2">B12/B3</f>
         <v>0.59872611464968151</v>
       </c>
       <c r="C13" s="15">
-        <f>C12/C3</f>
+        <f t="shared" si="2"/>
         <v>0.30784844384303112</v>
       </c>
       <c r="D13" s="15">
-        <f>D12/D3</f>
+        <f t="shared" si="2"/>
         <v>0.24397209162027292</v>
       </c>
       <c r="E13" s="15">
-        <f>E12/E3</f>
+        <f t="shared" si="2"/>
         <v>0.31339174150633081</v>
       </c>
       <c r="F13" s="15">
-        <f>F12/F3</f>
+        <f t="shared" si="2"/>
         <v>0.26366853090696069</v>
       </c>
       <c r="G13" s="15">
-        <f>G12/G3</f>
+        <f t="shared" si="2"/>
         <v>0.19440993609790827</v>
       </c>
       <c r="H13" s="15">
-        <f>H12/H3</f>
+        <f t="shared" si="2"/>
         <v>0.16929489826429925</v>
       </c>
       <c r="I13" s="15">
-        <f>I12/I3</f>
+        <f t="shared" si="2"/>
         <v>0.14740052575194745</v>
       </c>
       <c r="J13" s="15">
-        <f>J12/J3</f>
+        <f t="shared" si="2"/>
         <v>0.13268668499509617</v>
       </c>
       <c r="K13" s="15">
-        <f>K12/K3</f>
+        <f t="shared" si="2"/>
         <v>0.13616018845700825</v>
       </c>
       <c r="L13" s="15">
-        <f>L12/L3</f>
+        <f t="shared" si="2"/>
         <v>0.13023994024834282</v>
       </c>
       <c r="M13" s="15">
-        <f>M12/M3</f>
+        <f t="shared" si="2"/>
         <v>0.1261206605999326</v>
       </c>
       <c r="N13" s="15">
-        <f>N12/N3</f>
+        <f t="shared" si="2"/>
         <v>0.12621308567254513</v>
       </c>
       <c r="O13" s="15">
-        <f>O12/O3</f>
+        <f t="shared" si="2"/>
         <v>0.12485209514872088</v>
       </c>
       <c r="P13" s="15">
-        <f>P12/P3</f>
+        <f t="shared" si="2"/>
         <v>0.12855221611507425</v>
       </c>
       <c r="Q13" s="15">
-        <f>Q12/Q3</f>
+        <f t="shared" si="2"/>
         <v>0.1427709715664455</v>
       </c>
       <c r="R13" s="15">
-        <f>R12/R3</f>
+        <f t="shared" si="2"/>
         <v>5.4081482330217867E-2</v>
       </c>
       <c r="S13" s="15">
-        <f>S12/S3</f>
+        <f t="shared" si="2"/>
         <v>5.7244936334819752E-2</v>
       </c>
       <c r="T13" s="15">
-        <f>T12/T3</f>
+        <f t="shared" si="2"/>
         <v>6.6121274778621841E-2</v>
       </c>
       <c r="U13" s="15">
-        <f>U12/U3</f>
+        <f t="shared" si="2"/>
         <v>6.5426237781059007E-2</v>
       </c>
       <c r="V13" s="15">
-        <f>V12/V3</f>
+        <f t="shared" si="2"/>
         <v>7.1072970210387762E-2</v>
       </c>
       <c r="W13" s="15">
-        <f>W12/W3</f>
+        <f t="shared" si="2"/>
         <v>7.7266031731753115E-2</v>
       </c>
       <c r="X13" s="15">
-        <f>X12/X3</f>
+        <f t="shared" si="2"/>
         <v>7.7934792410052939E-2</v>
       </c>
       <c r="Y13" s="15">
-        <f>Y12/Y3</f>
+        <f t="shared" si="2"/>
         <v>8.5843534553439654E-2</v>
       </c>
       <c r="Z13" s="15">
-        <f>Z12/Z3</f>
+        <f t="shared" si="2"/>
         <v>7.4277839943636292E-2</v>
       </c>
       <c r="AH13" s="17">
@@ -4679,15 +4702,15 @@
       </c>
       <c r="AI16" s="30">
         <f>AJ101/AB3</f>
-        <v>2.320633172692482</v>
+        <v>2.2956809855578881</v>
       </c>
       <c r="AJ16" s="30">
         <f>AJ101/AB28</f>
-        <v>-438.1947097722263</v>
+        <v>-433.48310066127846</v>
       </c>
       <c r="AK16" s="31">
         <f>AJ101/AB106</f>
-        <v>-70.607115373231522</v>
+        <v>-69.847925176108447</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -4973,95 +4996,95 @@
         <v>2.8931073727638084</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:Z20" si="2">(F19/E19)-1</f>
+        <f t="shared" ref="F20:Z20" si="3">(F19/E19)-1</f>
         <v>1.4859084161242433</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.59819836373575397</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.85965249243728603</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.850635386119257</v>
       </c>
       <c r="J20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7995105289104867</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33227060617154081</v>
       </c>
       <c r="L20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.14782608695652177</v>
       </c>
       <c r="M20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.48939393939393949</v>
       </c>
       <c r="N20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27161749745676511</v>
       </c>
       <c r="O20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.25360000000000005</v>
       </c>
       <c r="P20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.34716017868538618</v>
       </c>
       <c r="Q20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.9422074846044524E-2</v>
       </c>
       <c r="R20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2753623188405796</v>
       </c>
       <c r="S20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.45037878787878793</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27500652911987467</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.69725522326915201</v>
       </c>
       <c r="V20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49601737871107887</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30106485963213947</v>
       </c>
       <c r="X20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.73784722222222232</v>
       </c>
       <c r="Y20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33263165406022543</v>
       </c>
       <c r="Z20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.36788840994886352</v>
       </c>
       <c r="AA20" s="15">
-        <f t="shared" ref="AA20" si="3">(AA19/Z19)-1</f>
+        <f t="shared" ref="AA20" si="4">(AA19/Z19)-1</f>
         <v>0.45345650982541308</v>
       </c>
       <c r="AB20" s="15">
-        <f t="shared" ref="AB20" si="4">(AB19/AA19)-1</f>
+        <f t="shared" ref="AB20" si="5">(AB19/AA19)-1</f>
         <v>-0.48358470239698359</v>
       </c>
     </row>
@@ -5771,95 +5794,95 @@
         <v>4.780739646395709</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:Z29" si="5">(F28/E28)-1</f>
+        <f t="shared" ref="F29:Z29" si="6">(F28/E28)-1</f>
         <v>0.96018850837815006</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.59803879192757181</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.73710903139030837</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.2365823565700185</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.678504619919504</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.38992371497371914</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.47075208913649025</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5052631578947366</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.35504201680672276</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.39844961240310073</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.27716186252771613</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-0.45225694444444442</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.0618066561014263</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-8.0256410256410255</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.8795620437956204</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.4730290456431536</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9781879194630871</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.27920708561788277</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.3211341905703922</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.1504020649260398</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.84078356920952713</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" ref="AA29" si="6">(AA28/Z28)-1</f>
+        <f t="shared" ref="AA29" si="7">(AA28/Z28)-1</f>
         <v>0.56410857437532225</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" ref="AB29" si="7">(AB28/AA28)-1</f>
+        <f t="shared" ref="AB29" si="8">(AB28/AA28)-1</f>
         <v>-1.0815849418534949</v>
       </c>
     </row>
@@ -6303,103 +6326,103 @@
         <v>0.35221674888313231</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:Z35" si="8">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:Z35" si="9">(D34-C34)/C34</f>
         <v>0.13355628601129446</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10261385416947871</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.3817225855615703E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8013754264363459E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8856596862807548E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10833247436985118</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.2888933402010722E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.9263790826284204E-3</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-4.6948356807511738E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.8867924528301886E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.3148148148148147E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.1674208144796379E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.0964912280701754E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.735357917570499E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.6490066225165563E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-6.4516129032258064E-3</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.2467532467532464E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4675052410901468E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.859504132231405E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4198782961460446E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" ref="AA35" si="9">(AA34-Z34)/Z34</f>
+        <f t="shared" ref="AA35" si="10">(AA34-Z34)/Z34</f>
         <v>9.8039215686274508E-3</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" ref="AB35" si="10">(AB34-AA34)/AA34</f>
+        <f t="shared" ref="AB35" si="11">(AB34-AA34)/AA34</f>
         <v>-1.0776699029126214E-2</v>
       </c>
     </row>
@@ -10192,111 +10215,111 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AB80" si="11">B79/B3</f>
+        <f t="shared" ref="B80:AB80" si="12">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.4295583979086915E-3</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.247050893158072E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.434832515913597E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3913256354808438E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2396210969477255E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.1585581463069658E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3634949994271029E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.5231289958631064E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6822492920393763E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.9802627890024859E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1877091192540464E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3697615058527206E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3264501668191009E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4468669123990275E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3850967715197482E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7152836606204052E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.8174414328878581E-2</v>
       </c>
     </row>
@@ -10557,10 +10580,10 @@
       <c r="AB83" s="1">
         <v>-2592000000</v>
       </c>
-      <c r="AI83" s="33" t="s">
+      <c r="AI83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AJ83" s="34"/>
+      <c r="AJ83" s="63"/>
     </row>
     <row r="84" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10647,10 +10670,10 @@
       <c r="AB84" s="1">
         <v>2945000000</v>
       </c>
-      <c r="AI84" s="35" t="s">
+      <c r="AI84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AJ84" s="36"/>
+      <c r="AJ84" s="65"/>
     </row>
     <row r="85" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11016,10 +11039,10 @@
       <c r="AB88" s="1">
         <v>-63645000000</v>
       </c>
-      <c r="AI88" s="37" t="s">
+      <c r="AI88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AJ88" s="38">
+      <c r="AJ88" s="34">
         <f>AJ85/(AJ86+AJ87)</f>
         <v>1.6892904551877704E-2</v>
       </c>
@@ -11029,111 +11052,111 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:AB89" si="12">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AB89" si="13">(-1*B88)/B3</f>
         <v>7.6433121019108277E-2</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.8714479025710418E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.6447845559643014E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.17505072144277578</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.8790307543529414E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6115958292780022E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.9577008118108198E-3</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.7320722556513963E-3</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2878399520077953E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.4028268551236749E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.0166184296517599E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5099427030670711E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.7374517374517374E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.52188991798931E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.8622383346976962E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.7668739730016429E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.1954724763884569E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.6257991726212859E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.4984941789904256E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.2885445675943407E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.9541500290468943E-2</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.7213520290555814E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.7654570671613274E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.0105802753438235E-2</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.10397239835882134</v>
       </c>
       <c r="AA89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.12994921480901278</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.12382705264571008</v>
       </c>
       <c r="AI89" s="23" t="s">
@@ -11322,10 +11345,10 @@
       <c r="AB91" s="1">
         <v>-2565000000</v>
       </c>
-      <c r="AI91" s="37" t="s">
+      <c r="AI91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AJ91" s="38">
+      <c r="AJ91" s="34">
         <f>AJ89/AJ90</f>
         <v>0.54194743935309975</v>
       </c>
@@ -11415,10 +11438,10 @@
       <c r="AB92" s="1">
         <v>31601000000</v>
       </c>
-      <c r="AI92" s="39" t="s">
+      <c r="AI92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AJ92" s="40">
+      <c r="AJ92" s="36">
         <f>AJ88*(1-AJ91)</f>
         <v>7.7378381867512589E-3</v>
       </c>
@@ -11508,10 +11531,10 @@
       <c r="AB93" s="1">
         <v>5324000000</v>
       </c>
-      <c r="AI93" s="35" t="s">
+      <c r="AI93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AJ93" s="36"/>
+      <c r="AJ93" s="65"/>
     </row>
     <row r="94" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11601,7 +11624,7 @@
       <c r="AI94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AJ94" s="41">
+      <c r="AJ94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -11690,12 +11713,12 @@
       <c r="AB95" s="1">
         <v>-47001000000</v>
       </c>
-      <c r="AI95" s="42" t="s">
+      <c r="AI95" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="AJ95" s="43" cm="1">
+      <c r="AJ95" s="39" cm="1">
         <f t="array" ref="AJ95">_FV(A1,"Beta")</f>
-        <v>1.2601</v>
+        <v>1.2545999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -11786,7 +11809,7 @@
       <c r="AI96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AJ96" s="41">
+      <c r="AJ96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11875,12 +11898,12 @@
       <c r="AB97" s="1">
         <v>-6000000000</v>
       </c>
-      <c r="AI97" s="39" t="s">
+      <c r="AI97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AJ97" s="40">
+      <c r="AJ97" s="36">
         <f>(AJ94)+((AJ95)*(AJ96-AJ94))</f>
-        <v>9.519730500000001E-2</v>
+        <v>9.4960530000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -11968,10 +11991,10 @@
       <c r="AB98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AI98" s="35" t="s">
+      <c r="AI98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AJ98" s="36"/>
+      <c r="AJ98" s="65"/>
     </row>
     <row r="99" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12151,12 +12174,12 @@
       <c r="AB100" s="10">
         <v>9718000000</v>
       </c>
-      <c r="AI100" s="37" t="s">
+      <c r="AI100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AJ100" s="38">
+      <c r="AJ100" s="34">
         <f>AJ99/AJ103</f>
-        <v>0.10512392676331923</v>
+        <v>0.10614525562872569</v>
       </c>
     </row>
     <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12244,12 +12267,12 @@
       <c r="AB101" s="1">
         <v>-1093000000</v>
       </c>
-      <c r="AI101" s="42" t="s">
+      <c r="AI101" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="AJ101" s="44" cm="1">
+      <c r="AJ101" s="40" cm="1">
         <f t="array" ref="AJ101">_FV(A1,"Market cap",TRUE)</f>
-        <v>1192766000000</v>
+        <v>1179941000000</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12337,12 +12360,12 @@
       <c r="AB102" s="10">
         <v>17776000000</v>
       </c>
-      <c r="AI102" s="37" t="s">
+      <c r="AI102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AJ102" s="38">
+      <c r="AJ102" s="34">
         <f>AJ101/AJ103</f>
-        <v>0.89487607323668072</v>
+        <v>0.89385474437127432</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12430,12 +12453,12 @@
       <c r="AB103" s="1">
         <v>36477000000</v>
       </c>
-      <c r="AI103" s="39" t="s">
+      <c r="AI103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AJ103" s="45">
+      <c r="AJ103" s="41">
         <f>AJ99+AJ101</f>
-        <v>1332884000000</v>
+        <v>1320059000000</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12523,10 +12546,10 @@
       <c r="AB104" s="11">
         <v>54253000000</v>
       </c>
-      <c r="AI104" s="35" t="s">
+      <c r="AI104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AJ104" s="36"/>
+      <c r="AJ104" s="65"/>
     </row>
     <row r="105" spans="1:36" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12554,101 +12577,111 @@
         <v>-0.35858597285067872</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:Z105" si="13">(H106/G106)-1</f>
+        <f t="shared" ref="H105:Z105" si="14">(H106/G106)-1</f>
         <v>-1.7943892817880931</v>
       </c>
       <c r="I105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5609718193120599</v>
       </c>
       <c r="J105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.37961156912549598</v>
       </c>
       <c r="K105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.10802279720250429</v>
       </c>
       <c r="L105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-8.1285444234404536E-2</v>
       </c>
       <c r="M105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.4300411522633745</v>
       </c>
       <c r="N105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15495342929720568</v>
       </c>
       <c r="O105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1407624633431084</v>
       </c>
       <c r="P105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.13835616438356169</v>
       </c>
       <c r="Q105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.16852146263910972</v>
       </c>
       <c r="R105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.81118546845124284</v>
       </c>
       <c r="S105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.141772151898734</v>
       </c>
       <c r="T105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-4.0374199901526353E-2</v>
       </c>
       <c r="U105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.7614161108260649</v>
       </c>
       <c r="V105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.32396671668258081</v>
       </c>
       <c r="W105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.33247475788172265</v>
       </c>
       <c r="X105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.6695477697175489</v>
       </c>
       <c r="Y105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.25190795559666967</v>
       </c>
       <c r="Z105" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1972474945735001</v>
       </c>
       <c r="AA105" s="15">
-        <f t="shared" ref="AA105" si="14">(AA106/Z106)-1</f>
+        <f t="shared" ref="AA105" si="15">(AA106/Z106)-1</f>
         <v>-1.5680450547754976</v>
       </c>
       <c r="AB105" s="15">
-        <f t="shared" ref="AB105" si="15">(AB106/AA106)-1</f>
+        <f t="shared" ref="AB105" si="16">(AB106/AA106)-1</f>
         <v>0.14715469238082313</v>
       </c>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
+      <c r="AC105" s="66">
+        <v>32370000000</v>
+      </c>
+      <c r="AD105" s="66">
+        <v>48076000000</v>
+      </c>
+      <c r="AE105" s="66">
+        <v>64090000000</v>
+      </c>
+      <c r="AF105" s="66">
+        <v>97481000000</v>
+      </c>
+      <c r="AG105" s="66">
+        <v>75763000000</v>
+      </c>
       <c r="AH105" s="15"/>
       <c r="AI105" s="25" t="s">
         <v>108</v>
       </c>
       <c r="AJ105" s="26">
         <f>(AJ100*AJ92)+(AJ102*AJ97)</f>
-        <v>8.6003222415965086E-2</v>
+        <v>8.5702255080857159E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12736,33 +12769,33 @@
       <c r="AB106" s="1">
         <v>-16893000000</v>
       </c>
-      <c r="AC106" s="46">
-        <f>AB107*(1+$AJ$106)</f>
-        <v>35813247265.484016</v>
-      </c>
-      <c r="AD106" s="46">
-        <f t="shared" ref="AD106:AG106" si="16">AC106*(1+$AJ$106)</f>
-        <v>39646028861.509644</v>
-      </c>
-      <c r="AE106" s="46">
-        <f t="shared" si="16"/>
-        <v>43888999867.446465</v>
-      </c>
-      <c r="AF106" s="46">
-        <f t="shared" si="16"/>
-        <v>48586059302.267487</v>
-      </c>
-      <c r="AG106" s="46">
-        <f t="shared" si="16"/>
-        <v>53785804316.638603</v>
-      </c>
-      <c r="AH106" s="47" t="s">
+      <c r="AC106" s="42">
+        <f>AB106*(1+$AJ$106)</f>
+        <v>-18700911441.866451</v>
+      </c>
+      <c r="AD106" s="42">
+        <f t="shared" ref="AD106:AG106" si="17">AC106*(1+$AJ$106)</f>
+        <v>-20702307982.982983</v>
+      </c>
+      <c r="AE106" s="42">
+        <f t="shared" si="17"/>
+        <v>-22917896657.314247</v>
+      </c>
+      <c r="AF106" s="42">
+        <f t="shared" si="17"/>
+        <v>-25370600593.280109</v>
+      </c>
+      <c r="AG106" s="42">
+        <f t="shared" si="17"/>
+        <v>-28085796183.146614</v>
+      </c>
+      <c r="AH106" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AI106" s="48" t="s">
+      <c r="AI106" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="AJ106" s="49">
+      <c r="AJ106" s="45">
         <f>(SUM(AC4:AG4)/5)</f>
         <v>0.10702133675880247</v>
       </c>
@@ -12795,154 +12828,152 @@
       <c r="Y107" s="13"/>
       <c r="Z107" s="13"/>
       <c r="AA107" s="13"/>
-      <c r="AB107" s="1">
-        <v>32351000000</v>
-      </c>
-      <c r="AC107" s="47"/>
-      <c r="AD107" s="47"/>
-      <c r="AE107" s="47"/>
-      <c r="AF107" s="47"/>
-      <c r="AG107" s="50">
-        <f>AG106*(1+AJ107)/(AJ108-AJ107)</f>
-        <v>831194574974.28613</v>
-      </c>
-      <c r="AH107" s="51" t="s">
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="43"/>
+      <c r="AD107" s="43"/>
+      <c r="AE107" s="43"/>
+      <c r="AF107" s="43"/>
+      <c r="AG107" s="67">
+        <f>AG105*(1+AJ107)/(AJ108-AJ107)</f>
+        <v>1176188852344.5156</v>
+      </c>
+      <c r="AH107" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AI107" s="52" t="s">
+      <c r="AI107" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AJ107" s="53">
+      <c r="AJ107" s="49">
         <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AC108" s="50">
-        <f t="shared" ref="AC108:AE108" si="17">AC107+AC106</f>
-        <v>35813247265.484016</v>
-      </c>
-      <c r="AD108" s="50">
-        <f t="shared" si="17"/>
-        <v>39646028861.509644</v>
-      </c>
-      <c r="AE108" s="50">
-        <f t="shared" si="17"/>
-        <v>43888999867.446465</v>
-      </c>
-      <c r="AF108" s="50">
+      <c r="AC108" s="46">
+        <f t="shared" ref="AC108:AE108" si="18">AC107+AC106</f>
+        <v>-18700911441.866451</v>
+      </c>
+      <c r="AD108" s="46">
+        <f t="shared" si="18"/>
+        <v>-20702307982.982983</v>
+      </c>
+      <c r="AE108" s="46">
+        <f t="shared" si="18"/>
+        <v>-22917896657.314247</v>
+      </c>
+      <c r="AF108" s="46">
         <f>AF107+AF106</f>
-        <v>48586059302.267487</v>
-      </c>
-      <c r="AG108" s="50">
-        <f>AG107+AG106</f>
-        <v>884980379290.92468</v>
-      </c>
-      <c r="AH108" s="51" t="s">
+        <v>-25370600593.280109</v>
+      </c>
+      <c r="AG108" s="67">
+        <f>AG107+AG105</f>
+        <v>1251951852344.5156</v>
+      </c>
+      <c r="AH108" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="AI108" s="54" t="s">
+      <c r="AI108" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="AJ108" s="55">
+      <c r="AJ108" s="51">
         <f>AJ105</f>
-        <v>8.6003222415965086E-2</v>
+        <v>8.5702255080857159E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AC109" s="56" t="s">
+      <c r="AC109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AD109" s="57"/>
+      <c r="AD109" s="61"/>
     </row>
     <row r="110" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC110" s="58" t="s">
+      <c r="AC110" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="AD110" s="44">
+      <c r="AD110" s="40">
         <f>NPV(AJ108,AC108,AD108,AE108,AF108,AG108)</f>
-        <v>721626168407.3833</v>
+        <v>758960675196.30322</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC111" s="58" t="s">
+      <c r="AC111" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="AD111" s="44">
+      <c r="AD111" s="40">
         <f>AB40</f>
         <v>70026000000</v>
       </c>
     </row>
     <row r="112" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC112" s="58" t="s">
+      <c r="AC112" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="AD112" s="44">
+      <c r="AD112" s="40">
         <f>AJ99</f>
         <v>140118000000</v>
       </c>
     </row>
     <row r="113" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC113" s="58" t="s">
+      <c r="AC113" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AD113" s="44">
+      <c r="AD113" s="40">
         <f>AD110+AD111-AD112</f>
-        <v>651534168407.3833</v>
+        <v>688868675196.30322</v>
       </c>
     </row>
     <row r="114" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC114" s="58" t="s">
+      <c r="AC114" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="AD114" s="59">
+      <c r="AD114" s="53">
         <f>AB34*(1+(5*AH16))</f>
         <v>10526569389.096916</v>
       </c>
     </row>
     <row r="115" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC115" s="60" t="s">
+      <c r="AC115" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="AD115" s="61">
+      <c r="AD115" s="55">
         <f>AD113/AD114</f>
-        <v>61.89425484452908</v>
+        <v>65.440947542682935</v>
       </c>
     </row>
     <row r="116" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC116" s="58" t="s">
+      <c r="AC116" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="AD116" s="62" cm="1">
+      <c r="AD116" s="56" cm="1">
         <f t="array" ref="AD116">_FV(A1,"Price")</f>
-        <v>116.25</v>
+        <v>120.11</v>
       </c>
     </row>
     <row r="117" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC117" s="63" t="s">
+      <c r="AC117" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="AD117" s="64">
+      <c r="AD117" s="58">
         <f>AD115/AD116-1</f>
-        <v>-0.46757630241265313</v>
+        <v>-0.45515820878625479</v>
       </c>
     </row>
     <row r="118" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC118" s="63" t="s">
+      <c r="AC118" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="AD118" s="65" t="str">
+      <c r="AD118" s="59" t="str">
         <f>IF(AD115&gt;AD116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AC109:AD109"/>
     <mergeCell ref="AI83:AJ83"/>
     <mergeCell ref="AI84:AJ84"/>
     <mergeCell ref="AI93:AJ93"/>
     <mergeCell ref="AI98:AJ98"/>
     <mergeCell ref="AI104:AJ104"/>
-    <mergeCell ref="AC109:AD109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/AMZN" display="ROIC.AI | AMZN" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Technology/Software/Amazon.xlsx
+++ b/Technology/Software/Amazon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E1D3CC-807A-BD4B-AE96-55FE4E31B4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE255AC-763E-144C-A243-9FAA14E32AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,6 +1017,8 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1035,8 +1037,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2435,11 +2435,9 @@
     <v>Powered by Refinitiv</v>
     <v>146.57</v>
     <v>81.430000000000007</v>
-    <v>1.2545999999999999</v>
-    <v>5.1100000000000003</v>
-    <v>4.4435000000000002E-2</v>
-    <v>0.48</v>
-    <v>3.9960000000000004E-3</v>
+    <v>1.2619</v>
+    <v>5.32</v>
+    <v>4.2618000000000003E-2</v>
     <v>USD</v>
     <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content that it purchased for resale and products offered by third-party sellers. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, and Ring, and it develops and produces media content. It also offers subscription services such as Amazon Prime, a membership program. Its segments include North America, International and Amazon Web Services (AWS). The AWS segment consists of global sales of compute, storage, database, and other services for start-ups, enterprises, government agencies, and academic institutions. It provides advertising services to sellers, vendors, publishers, authors, and others, through programs, such as sponsored advertisements, display, and video advertising. Customers access its offerings through websites, mobile applications, Alexa, devices, streaming, and physically visiting its stores.</v>
     <v>1465000</v>
@@ -2447,25 +2445,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>410 Terry Ave N, SEATTLE, WA, 98109 US</v>
-    <v>121.5</v>
+    <v>130.33000000000001</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45072.999993078127</v>
+    <v>45099.999995474216</v>
     <v>0</v>
-    <v>116.02</v>
-    <v>1179941000000</v>
+    <v>125.14</v>
+    <v>1280800000000</v>
     <v>AMAZON.COM, INC.</v>
     <v>AMAZON.COM, INC.</v>
-    <v>116.04</v>
-    <v>278.82170000000002</v>
-    <v>115</v>
-    <v>120.11</v>
-    <v>120.59</v>
+    <v>125.31</v>
+    <v>315.55340000000001</v>
+    <v>124.83</v>
+    <v>130.15</v>
     <v>10260350000</v>
     <v>AMZN</v>
     <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>96779889</v>
-    <v>71000047</v>
+    <v>438728</v>
+    <v>63771736</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -2497,8 +2494,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2519,7 +2514,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2536,7 +2530,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2547,16 +2541,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2622,19 +2613,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2679,9 +2664,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2689,9 +2671,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3056,7 +3035,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AA85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE92" sqref="AE92"/>
+      <selection pane="bottomRight" activeCell="AC94" sqref="AC94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4702,15 +4681,15 @@
       </c>
       <c r="AI16" s="30">
         <f>AJ101/AB3</f>
-        <v>2.2956809855578881</v>
+        <v>2.4919112110711832</v>
       </c>
       <c r="AJ16" s="30">
         <f>AJ101/AB28</f>
-        <v>-433.48310066127846</v>
+        <v>-470.53637031594417</v>
       </c>
       <c r="AK16" s="31">
         <f>AJ101/AB106</f>
-        <v>-69.847925176108447</v>
+        <v>-75.818386313857815</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -10580,10 +10559,10 @@
       <c r="AB83" s="1">
         <v>-2592000000</v>
       </c>
-      <c r="AI83" s="62" t="s">
+      <c r="AI83" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="AJ83" s="63"/>
+      <c r="AJ83" s="65"/>
     </row>
     <row r="84" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10670,10 +10649,10 @@
       <c r="AB84" s="1">
         <v>2945000000</v>
       </c>
-      <c r="AI84" s="64" t="s">
+      <c r="AI84" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="AJ84" s="65"/>
+      <c r="AJ84" s="67"/>
     </row>
     <row r="85" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11531,10 +11510,10 @@
       <c r="AB93" s="1">
         <v>5324000000</v>
       </c>
-      <c r="AI93" s="64" t="s">
+      <c r="AI93" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="AJ93" s="65"/>
+      <c r="AJ93" s="67"/>
     </row>
     <row r="94" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11718,7 +11697,7 @@
       </c>
       <c r="AJ95" s="39" cm="1">
         <f t="array" ref="AJ95">_FV(A1,"Beta")</f>
-        <v>1.2545999999999999</v>
+        <v>1.2619</v>
       </c>
     </row>
     <row r="96" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -11903,7 +11882,7 @@
       </c>
       <c r="AJ97" s="36">
         <f>(AJ94)+((AJ95)*(AJ96-AJ94))</f>
-        <v>9.4960530000000001E-2</v>
+        <v>9.5274795000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -11991,10 +11970,10 @@
       <c r="AB98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AI98" s="64" t="s">
+      <c r="AI98" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="AJ98" s="65"/>
+      <c r="AJ98" s="67"/>
     </row>
     <row r="99" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12179,7 +12158,7 @@
       </c>
       <c r="AJ100" s="34">
         <f>AJ99/AJ103</f>
-        <v>0.10614525562872569</v>
+        <v>9.8610898025079566E-2</v>
       </c>
     </row>
     <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12272,7 +12251,7 @@
       </c>
       <c r="AJ101" s="40" cm="1">
         <f t="array" ref="AJ101">_FV(A1,"Market cap",TRUE)</f>
-        <v>1179941000000</v>
+        <v>1280800000000</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12365,7 +12344,7 @@
       </c>
       <c r="AJ102" s="34">
         <f>AJ101/AJ103</f>
-        <v>0.89385474437127432</v>
+        <v>0.90138910197492039</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12458,7 +12437,7 @@
       </c>
       <c r="AJ103" s="41">
         <f>AJ99+AJ101</f>
-        <v>1320059000000</v>
+        <v>1420918000000</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12546,10 +12525,10 @@
       <c r="AB104" s="11">
         <v>54253000000</v>
       </c>
-      <c r="AI104" s="64" t="s">
+      <c r="AI104" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="AJ104" s="65"/>
+      <c r="AJ104" s="67"/>
     </row>
     <row r="105" spans="1:36" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12660,19 +12639,19 @@
         <f t="shared" ref="AB105" si="16">(AB106/AA106)-1</f>
         <v>0.14715469238082313</v>
       </c>
-      <c r="AC105" s="66">
+      <c r="AC105" s="60">
         <v>32370000000</v>
       </c>
-      <c r="AD105" s="66">
+      <c r="AD105" s="60">
         <v>48076000000</v>
       </c>
-      <c r="AE105" s="66">
+      <c r="AE105" s="60">
         <v>64090000000</v>
       </c>
-      <c r="AF105" s="66">
+      <c r="AF105" s="60">
         <v>97481000000</v>
       </c>
-      <c r="AG105" s="66">
+      <c r="AG105" s="60">
         <v>75763000000</v>
       </c>
       <c r="AH105" s="15"/>
@@ -12681,7 +12660,7 @@
       </c>
       <c r="AJ105" s="26">
         <f>(AJ100*AJ92)+(AJ102*AJ97)</f>
-        <v>8.5702255080857159E-2</v>
+        <v>8.6642697078262942E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12833,9 +12812,9 @@
       <c r="AD107" s="43"/>
       <c r="AE107" s="43"/>
       <c r="AF107" s="43"/>
-      <c r="AG107" s="67">
+      <c r="AG107" s="61">
         <f>AG105*(1+AJ107)/(AJ108-AJ107)</f>
-        <v>1176188852344.5156</v>
+        <v>1159590823721.4202</v>
       </c>
       <c r="AH107" s="47" t="s">
         <v>148</v>
@@ -12864,9 +12843,9 @@
         <f>AF107+AF106</f>
         <v>-25370600593.280109</v>
       </c>
-      <c r="AG108" s="67">
+      <c r="AG108" s="61">
         <f>AG107+AG105</f>
-        <v>1251951852344.5156</v>
+        <v>1235353823721.4202</v>
       </c>
       <c r="AH108" s="47" t="s">
         <v>144</v>
@@ -12876,14 +12855,14 @@
       </c>
       <c r="AJ108" s="51">
         <f>AJ105</f>
-        <v>8.5702255080857159E-2</v>
+        <v>8.6642697078262942E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AC109" s="60" t="s">
+      <c r="AC109" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="AD109" s="61"/>
+      <c r="AD109" s="63"/>
     </row>
     <row r="110" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="AC110" s="52" t="s">
@@ -12891,7 +12870,7 @@
       </c>
       <c r="AD110" s="40">
         <f>NPV(AJ108,AC108,AD108,AE108,AF108,AG108)</f>
-        <v>758960675196.30322</v>
+        <v>744575225042.82825</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12918,7 +12897,7 @@
       </c>
       <c r="AD113" s="40">
         <f>AD110+AD111-AD112</f>
-        <v>688868675196.30322</v>
+        <v>674483225042.82825</v>
       </c>
     </row>
     <row r="114" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12936,7 +12915,7 @@
       </c>
       <c r="AD115" s="55">
         <f>AD113/AD114</f>
-        <v>65.440947542682935</v>
+        <v>64.074362701815886</v>
       </c>
     </row>
     <row r="116" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12945,7 +12924,7 @@
       </c>
       <c r="AD116" s="56" cm="1">
         <f t="array" ref="AD116">_FV(A1,"Price")</f>
-        <v>120.11</v>
+        <v>130.15</v>
       </c>
     </row>
     <row r="117" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12954,7 +12933,7 @@
       </c>
       <c r="AD117" s="58">
         <f>AD115/AD116-1</f>
-        <v>-0.45515820878625479</v>
+        <v>-0.50768833882584796</v>
       </c>
     </row>
     <row r="118" spans="29:30" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Amazon.xlsx
+++ b/Technology/Software/Amazon.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE255AC-763E-144C-A243-9FAA14E32AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C443578B-1E5F-5B4E-921D-E208078446DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="166">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -510,9 +513,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +550,40 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +752,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +858,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +872,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,103 +919,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,7 +1062,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>AMZN</a:t>
+              <a:t>Amazon</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1127,9 +1102,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.2596026490066208E-2"/>
-          <c:y val="0.11636481310444519"/>
+          <c:y val="0.1632463537609907"/>
           <c:w val="0.84647682119205303"/>
-          <c:h val="0.73050389802151927"/>
+          <c:h val="0.61999747926059012"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1427,7 +1402,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1471,7 +1446,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AB$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AB$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1694,8 +1669,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35087125202064973"/>
-          <c:y val="0.92092414977815207"/>
+          <c:x val="0.352195755331908"/>
+          <c:y val="0.90083210768092503"/>
           <c:w val="0.30355550920373364"/>
           <c:h val="4.8388328927849382E-2"/>
         </c:manualLayout>
@@ -2279,13 +2254,13 @@
       <xdr:col>30</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>49212</xdr:rowOff>
+      <xdr:rowOff>49213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2311,6 +2286,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3032,10 +3061,10 @@
   <dimension ref="A1:AK118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC94" sqref="AC94"/>
+      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3130,19 +3159,19 @@
       <c r="AB1" s="8">
         <v>2022</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="23">
         <v>2023</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="23">
         <v>2024</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="23">
         <v>2025</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="23">
         <v>2026</v>
       </c>
-      <c r="AG1" s="27">
+      <c r="AG1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3328,20 +3357,20 @@
       <c r="AB3" s="1">
         <v>513983000000</v>
       </c>
-      <c r="AC3" s="28">
-        <v>560000000000</v>
-      </c>
-      <c r="AD3" s="28">
-        <v>628400000000</v>
-      </c>
-      <c r="AE3" s="28">
+      <c r="AC3" s="24">
+        <v>560800000000</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>627400000000</v>
+      </c>
+      <c r="AE3" s="24">
         <v>702400000000</v>
       </c>
-      <c r="AF3" s="28">
-        <v>786300000000</v>
-      </c>
-      <c r="AG3" s="28">
-        <v>854100000000</v>
+      <c r="AF3" s="24">
+        <v>778400000000</v>
+      </c>
+      <c r="AG3" s="24">
+        <v>856900000000</v>
       </c>
       <c r="AH3" s="18" t="s">
         <v>109</v>
@@ -3361,129 +3390,129 @@
         <v>94</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="69">
         <f>(C3/B3)-1</f>
         <v>8.4140127388535024</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="69">
         <f>(D3/C3)-1</f>
         <v>3.1271718538565629</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="69">
         <f>(E3/D3)-1</f>
         <v>1.6882782837920249</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="69">
         <f t="shared" ref="F4:AG4" si="0">(F3/E3)-1</f>
         <v>0.68430132470321792</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="69">
         <f t="shared" si="0"/>
         <v>0.1305040617556299</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="69">
         <f t="shared" si="0"/>
         <v>0.25957418461821269</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="69">
         <f t="shared" si="0"/>
         <v>0.3383637567455966</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="69">
         <f t="shared" si="0"/>
         <v>0.31487837735402424</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="69">
         <f t="shared" si="0"/>
         <v>0.22667936595269778</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="69">
         <f t="shared" si="0"/>
         <v>0.26160188457008249</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="69">
         <f t="shared" si="0"/>
         <v>0.38502474092054895</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="69">
         <f t="shared" si="0"/>
         <v>0.29194472531176263</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="69">
         <f t="shared" si="0"/>
         <v>0.27877491391004905</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="69">
         <f t="shared" si="0"/>
         <v>0.39556897466236896</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="69">
         <f t="shared" si="0"/>
         <v>0.40559583674424049</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="69">
         <f t="shared" si="0"/>
         <v>0.27073236682821311</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="69">
         <f t="shared" si="0"/>
         <v>0.21866662301736706</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="69">
         <f t="shared" si="0"/>
         <v>0.1952398861011122</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="69">
         <f t="shared" si="0"/>
         <v>0.20247673843664304</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="69">
         <f t="shared" si="0"/>
         <v>0.27083528026465808</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="69">
         <f t="shared" si="0"/>
         <v>0.30796326119408479</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="69">
         <f t="shared" si="0"/>
         <v>0.3093396152159491</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="69">
         <f t="shared" si="0"/>
         <v>0.20454125820676983</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="69">
         <f t="shared" si="0"/>
         <v>0.37623430604373276</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="69">
         <f t="shared" si="0"/>
         <v>0.21695366571345676</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="69">
         <f t="shared" si="0"/>
         <v>9.399517263985091E-2</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>8.9530198469599087E-2</v>
+        <v>9.1086670181698581E-2</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="0"/>
-        <v>0.12214285714285711</v>
+        <v>0.11875891583452214</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11775938892425208</v>
+        <v>0.11954096270321957</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11944760820045563</v>
+        <v>0.10820045558086555</v>
       </c>
       <c r="AG4" s="16">
         <f t="shared" si="0"/>
-        <v>8.6226631056848468E-2</v>
+        <v>0.10084789311408016</v>
       </c>
       <c r="AH4" s="17">
         <f>(AB4+AA4+Z4)/3</f>
@@ -3498,7 +3527,7 @@
         <v>0.10776906724378484</v>
       </c>
       <c r="AK4" s="17">
-        <f>(AB105+AA105+Z105)/3</f>
+        <f>(AB106+AA106+Z106)/3</f>
         <v>-0.40788095594039148</v>
       </c>
     </row>
@@ -3784,7 +3813,7 @@
         <v>-5.3E-3</v>
       </c>
       <c r="AK7" s="20">
-        <f>AB106/AB3</f>
+        <f>AB107/AB3</f>
         <v>-3.2866845790619534E-2</v>
       </c>
     </row>
@@ -4675,24 +4704,24 @@
       <c r="AB16" s="1">
         <v>501735000000</v>
       </c>
-      <c r="AH16" s="29">
+      <c r="AH16" s="25">
         <f>(AB35+AA35+Z35+Y35+X35)/5</f>
         <v>6.626153481144717E-3</v>
       </c>
-      <c r="AI16" s="30">
+      <c r="AI16" s="64">
         <f>AJ101/AB3</f>
         <v>2.4919112110711832</v>
       </c>
-      <c r="AJ16" s="30">
+      <c r="AJ16" s="64">
         <f>AJ101/AB28</f>
         <v>-470.53637031594417</v>
       </c>
-      <c r="AK16" s="31">
-        <f>AJ101/AB106</f>
+      <c r="AK16" s="65">
+        <f>AJ101/AB107</f>
         <v>-75.818386313857815</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4778,7 +4807,7 @@
         <v>2367000000</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4866,8 +4895,17 @@
       <c r="AH18" s="18" t="s">
         <v>125</v>
       </c>
+      <c r="AI18" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK18" s="19" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="19" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4952,12 +4990,39 @@
       <c r="AB19" s="10">
         <v>38349000000</v>
       </c>
-      <c r="AH19" s="32">
+      <c r="AC19" s="58">
+        <v>88632000000</v>
+      </c>
+      <c r="AD19" s="58">
+        <v>106200000000</v>
+      </c>
+      <c r="AE19" s="58">
+        <v>129300000000</v>
+      </c>
+      <c r="AF19" s="58">
+        <v>156900000000</v>
+      </c>
+      <c r="AG19" s="58">
+        <v>140200000000</v>
+      </c>
+      <c r="AH19" s="26">
         <f>AB40-AB56-AB61</f>
         <v>-70092000000</v>
       </c>
+      <c r="AI19" s="63">
+        <f>AJ101/AC3</f>
+        <v>2.2838801711840229</v>
+      </c>
+      <c r="AJ19" s="64">
+        <f>AJ101/AC28</f>
+        <v>79.562678593614109</v>
+      </c>
+      <c r="AK19" s="65">
+        <f>AJ101/AC106</f>
+        <v>38.860402318031497</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -5063,11 +5128,31 @@
         <v>0.45345650982541308</v>
       </c>
       <c r="AB20" s="15">
-        <f t="shared" ref="AB20" si="5">(AB19/AA19)-1</f>
+        <f t="shared" ref="AB20:AG20" si="5">(AB19/AA19)-1</f>
         <v>-0.48358470239698359</v>
       </c>
+      <c r="AC20" s="16">
+        <f t="shared" si="5"/>
+        <v>1.3111945552687163</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.19821283509342003</v>
+      </c>
+      <c r="AE20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.21751412429378525</v>
+      </c>
+      <c r="AF20" s="16">
+        <f t="shared" si="5"/>
+        <v>0.21345707656612523</v>
+      </c>
+      <c r="AG20" s="16">
+        <f t="shared" si="5"/>
+        <v>-0.10643722115997456</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5152,8 +5237,34 @@
       <c r="AB21" s="2">
         <v>7.46E-2</v>
       </c>
+      <c r="AC21" s="59">
+        <f>AC19/AC3</f>
+        <v>0.1580456490727532</v>
+      </c>
+      <c r="AD21" s="59">
+        <f t="shared" ref="AD21:AG21" si="6">AD19/AD3</f>
+        <v>0.16927000318775901</v>
+      </c>
+      <c r="AE21" s="59">
+        <f t="shared" si="6"/>
+        <v>0.18408314350797267</v>
+      </c>
+      <c r="AF21" s="59">
+        <f t="shared" si="6"/>
+        <v>0.20156731757451182</v>
+      </c>
+      <c r="AG21" s="59">
+        <f t="shared" si="6"/>
+        <v>0.16361302369004552</v>
+      </c>
+      <c r="AJ21" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK21" s="19" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5238,8 +5349,16 @@
       <c r="AB22" s="10">
         <v>12248000000</v>
       </c>
+      <c r="AJ22" s="66">
+        <f>(-1*AB98)/AJ101</f>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="67">
+        <f>AB107/AJ101</f>
+        <v>-1.318941286695815E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5325,7 +5444,7 @@
         <v>2.3800000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5411,7 +5530,7 @@
         <v>-18184000000</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5497,7 +5616,7 @@
         <v>-5936000000</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5583,7 +5702,7 @@
         <v>-1.15E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5669,7 +5788,7 @@
         <v>-3217000000</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5754,8 +5873,23 @@
       <c r="AB28" s="11">
         <v>-2722000000</v>
       </c>
+      <c r="AC28" s="60">
+        <v>16098000000</v>
+      </c>
+      <c r="AD28" s="60">
+        <v>27501000000</v>
+      </c>
+      <c r="AE28" s="60">
+        <v>39407000000</v>
+      </c>
+      <c r="AF28" s="60">
+        <v>53438000000</v>
+      </c>
+      <c r="AG28" s="60">
+        <v>66744000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:34" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -5773,99 +5907,119 @@
         <v>4.780739646395709</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:Z29" si="6">(F28/E28)-1</f>
+        <f t="shared" ref="F29:Z29" si="7">(F28/E28)-1</f>
         <v>0.96018850837815006</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.59803879192757181</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.73710903139030837</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.2365823565700185</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.678504619919504</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.38992371497371914</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.47075208913649025</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5052631578947366</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.35504201680672276</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.39844961240310073</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27716186252771613</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.45225694444444442</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.0618066561014263</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8.0256410256410255</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.8795620437956204</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.4730290456431536</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.9781879194630871</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27920708561788277</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3211341905703922</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1504020649260398</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.84078356920952713</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" ref="AA29" si="7">(AA28/Z28)-1</f>
+        <f t="shared" ref="AA29" si="8">(AA28/Z28)-1</f>
         <v>0.56410857437532225</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" ref="AB29" si="8">(AB28/AA28)-1</f>
+        <f t="shared" ref="AB29:AG29" si="9">(AB28/AA28)-1</f>
         <v>-1.0815849418534949</v>
       </c>
+      <c r="AC29" s="16">
+        <f t="shared" si="9"/>
+        <v>-6.9140337986774432</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.70834886321282142</v>
+      </c>
+      <c r="AE29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.43292971164684912</v>
+      </c>
+      <c r="AF29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.3560534930342325</v>
+      </c>
+      <c r="AG29" s="16">
+        <f t="shared" si="9"/>
+        <v>0.24899883977693782</v>
+      </c>
     </row>
-    <row r="30" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5950,8 +6104,28 @@
       <c r="AB30" s="2">
         <v>-5.3E-3</v>
       </c>
+      <c r="AC30" s="61">
+        <f>AC28/AC3</f>
+        <v>2.8705420827389444E-2</v>
+      </c>
+      <c r="AD30" s="61">
+        <f t="shared" ref="AD30:AG30" si="10">AD28/AD3</f>
+        <v>4.3833280204016577E-2</v>
+      </c>
+      <c r="AE30" s="61">
+        <f t="shared" si="10"/>
+        <v>5.6103359908883828E-2</v>
+      </c>
+      <c r="AF30" s="61">
+        <f t="shared" si="10"/>
+        <v>6.8651079136690649E-2</v>
+      </c>
+      <c r="AG30" s="61">
+        <f t="shared" si="10"/>
+        <v>7.7890068852841637E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6036,8 +6210,23 @@
       <c r="AB31" s="12">
         <v>-0.9</v>
       </c>
+      <c r="AC31" s="62">
+        <v>1.57</v>
+      </c>
+      <c r="AD31" s="62">
+        <v>2.68</v>
+      </c>
+      <c r="AE31" s="62">
+        <v>3.84</v>
+      </c>
+      <c r="AF31" s="62">
+        <v>5.21</v>
+      </c>
+      <c r="AG31" s="62">
+        <v>6.51</v>
+      </c>
     </row>
-    <row r="32" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6305,103 +6494,103 @@
         <v>0.35221674888313231</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:Z35" si="9">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:Z35" si="11">(D34-C34)/C34</f>
         <v>0.13355628601129446</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.10261385416947871</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.3817225855615703E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.8013754264363459E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.8856596862807548E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.10833247436985118</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.2888933402010722E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.9263790826284204E-3</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-4.6948356807511738E-3</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8867924528301886E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.3148148148148147E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.1674208144796379E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0964912280701754E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.735357917570499E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.6490066225165563E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-6.4516129032258064E-3</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.2467532467532464E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4675052410901468E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.859504132231405E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4198782961460446E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1904761904761904E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" ref="AA35" si="10">(AA34-Z34)/Z34</f>
+        <f t="shared" ref="AA35" si="12">(AA34-Z34)/Z34</f>
         <v>9.8039215686274508E-3</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" ref="AB35" si="11">(AB34-AA34)/AA34</f>
+        <f t="shared" ref="AB35" si="13">(AB34-AA34)/AA34</f>
         <v>-1.0776699029126214E-2</v>
       </c>
     </row>
@@ -10194,111 +10383,111 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AB80" si="12">B79/B3</f>
+        <f t="shared" ref="B80:AB80" si="14">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.4295583979086915E-3</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.247050893158072E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.434832515913597E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3913256354808438E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.2396210969477255E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1585581463069658E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3634949994271029E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.5231289958631064E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.6822492920393763E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.9802627890024859E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.1877091192540464E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.3697615058527206E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.3264501668191009E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.4468669123990275E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.3850967715197482E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.7152836606204052E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.8174414328878581E-2</v>
       </c>
     </row>
@@ -10559,10 +10748,10 @@
       <c r="AB83" s="1">
         <v>-2592000000</v>
       </c>
-      <c r="AI83" s="64" t="s">
+      <c r="AI83" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="AJ83" s="65"/>
+      <c r="AJ83" s="41"/>
     </row>
     <row r="84" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10649,10 +10838,10 @@
       <c r="AB84" s="1">
         <v>2945000000</v>
       </c>
-      <c r="AI84" s="66" t="s">
+      <c r="AI84" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="AJ84" s="67"/>
+      <c r="AJ84" s="42"/>
     </row>
     <row r="85" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10739,10 +10928,10 @@
       <c r="AB85" s="1">
         <v>2216000000</v>
       </c>
-      <c r="AI85" s="23" t="s">
+      <c r="AI85" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="AJ85" s="24">
+      <c r="AJ85" s="44">
         <f>AB17</f>
         <v>2367000000</v>
       </c>
@@ -10832,10 +11021,10 @@
       <c r="AB86" s="1">
         <v>16966000000</v>
       </c>
-      <c r="AI86" s="23" t="s">
+      <c r="AI86" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="AJ86" s="24">
+      <c r="AJ86" s="44">
         <f>AB56</f>
         <v>0</v>
       </c>
@@ -10925,10 +11114,10 @@
       <c r="AB87" s="10">
         <v>46752000000</v>
       </c>
-      <c r="AI87" s="23" t="s">
+      <c r="AI87" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="AJ87" s="24">
+      <c r="AJ87" s="44">
         <f>AB61</f>
         <v>140118000000</v>
       </c>
@@ -11018,10 +11207,10 @@
       <c r="AB88" s="1">
         <v>-63645000000</v>
       </c>
-      <c r="AI88" s="33" t="s">
+      <c r="AI88" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="AJ88" s="34">
+      <c r="AJ88" s="46">
         <f>AJ85/(AJ86+AJ87)</f>
         <v>1.6892904551877704E-2</v>
       </c>
@@ -11031,117 +11220,117 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:AB89" si="13">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AB89" si="15">(-1*B88)/B3</f>
         <v>7.6433121019108277E-2</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.8714479025710418E-2</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.6447845559643014E-2</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.17505072144277578</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.8790307543529414E-2</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.6115958292780022E-2</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.9577008118108198E-3</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.7320722556513963E-3</v>
       </c>
       <c r="J89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2878399520077953E-2</v>
       </c>
       <c r="K89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.4028268551236749E-2</v>
       </c>
       <c r="L89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0166184296517599E-2</v>
       </c>
       <c r="M89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.5099427030670711E-2</v>
       </c>
       <c r="N89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.7374517374517374E-2</v>
       </c>
       <c r="O89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.52188991798931E-2</v>
       </c>
       <c r="P89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.8622383346976962E-2</v>
       </c>
       <c r="Q89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.7668739730016429E-2</v>
       </c>
       <c r="R89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.1954724763884569E-2</v>
       </c>
       <c r="S89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.6257991726212859E-2</v>
       </c>
       <c r="T89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.4984941789904256E-2</v>
       </c>
       <c r="U89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.2885445675943407E-2</v>
       </c>
       <c r="V89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.9541500290468943E-2</v>
       </c>
       <c r="W89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.7213520290555814E-2</v>
       </c>
       <c r="X89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.7654570671613274E-2</v>
       </c>
       <c r="Y89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.0105802753438235E-2</v>
       </c>
       <c r="Z89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.10397239835882134</v>
       </c>
       <c r="AA89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.12994921480901278</v>
       </c>
       <c r="AB89" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.12382705264571008</v>
       </c>
-      <c r="AI89" s="23" t="s">
+      <c r="AI89" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="AJ89" s="24">
+      <c r="AJ89" s="44">
         <f>AB27</f>
         <v>-3217000000</v>
       </c>
@@ -11231,10 +11420,10 @@
       <c r="AB90" s="1">
         <v>-8316000000</v>
       </c>
-      <c r="AI90" s="23" t="s">
+      <c r="AI90" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AJ90" s="24">
+      <c r="AJ90" s="44">
         <f>AB25</f>
         <v>-5936000000</v>
       </c>
@@ -11324,10 +11513,10 @@
       <c r="AB91" s="1">
         <v>-2565000000</v>
       </c>
-      <c r="AI91" s="33" t="s">
+      <c r="AI91" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="AJ91" s="34">
+      <c r="AJ91" s="46">
         <f>AJ89/AJ90</f>
         <v>0.54194743935309975</v>
       </c>
@@ -11417,10 +11606,10 @@
       <c r="AB92" s="1">
         <v>31601000000</v>
       </c>
-      <c r="AI92" s="35" t="s">
+      <c r="AI92" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="AJ92" s="36">
+      <c r="AJ92" s="46">
         <f>AJ88*(1-AJ91)</f>
         <v>7.7378381867512589E-3</v>
       </c>
@@ -11510,10 +11699,10 @@
       <c r="AB93" s="1">
         <v>5324000000</v>
       </c>
-      <c r="AI93" s="66" t="s">
+      <c r="AI93" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="AJ93" s="67"/>
+      <c r="AJ93" s="42"/>
     </row>
     <row r="94" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11600,11 +11789,12 @@
       <c r="AB94" s="10">
         <v>-37601000000</v>
       </c>
-      <c r="AI94" s="23" t="s">
+      <c r="AI94" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="AJ94" s="37">
-        <v>4.095E-2</v>
+      <c r="AJ94" s="68">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -11692,10 +11882,10 @@
       <c r="AB95" s="1">
         <v>-47001000000</v>
       </c>
-      <c r="AI95" s="38" t="s">
+      <c r="AI95" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AJ95" s="39" cm="1">
+      <c r="AJ95" s="49" cm="1">
         <f t="array" ref="AJ95">_FV(A1,"Beta")</f>
         <v>1.2619</v>
       </c>
@@ -11785,10 +11975,10 @@
       <c r="AB96" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AI96" s="23" t="s">
+      <c r="AI96" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="AJ96" s="37">
+      <c r="AJ96" s="47">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11877,12 +12067,12 @@
       <c r="AB97" s="1">
         <v>-6000000000</v>
       </c>
-      <c r="AI97" s="35" t="s">
+      <c r="AI97" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="AJ97" s="36">
+      <c r="AJ97" s="46">
         <f>(AJ94)+((AJ95)*(AJ96-AJ94))</f>
-        <v>9.5274795000000009E-2</v>
+        <v>9.575407200000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -11967,13 +12157,13 @@
       <c r="AA98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AB98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI98" s="66" t="s">
+      <c r="AB98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI98" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AJ98" s="67"/>
+      <c r="AJ98" s="42"/>
     </row>
     <row r="99" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12060,10 +12250,10 @@
       <c r="AB99" s="1">
         <v>62719000000</v>
       </c>
-      <c r="AI99" s="23" t="s">
+      <c r="AI99" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="AJ99" s="24">
+      <c r="AJ99" s="44">
         <f>AJ86+AJ87</f>
         <v>140118000000</v>
       </c>
@@ -12153,10 +12343,10 @@
       <c r="AB100" s="10">
         <v>9718000000</v>
       </c>
-      <c r="AI100" s="33" t="s">
+      <c r="AI100" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="AJ100" s="34">
+      <c r="AJ100" s="46">
         <f>AJ99/AJ103</f>
         <v>9.8610898025079566E-2</v>
       </c>
@@ -12246,10 +12436,10 @@
       <c r="AB101" s="1">
         <v>-1093000000</v>
       </c>
-      <c r="AI101" s="38" t="s">
+      <c r="AI101" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="AJ101" s="40" cm="1">
+      <c r="AJ101" s="34" cm="1">
         <f t="array" ref="AJ101">_FV(A1,"Market cap",TRUE)</f>
         <v>1280800000000</v>
       </c>
@@ -12339,10 +12529,10 @@
       <c r="AB102" s="10">
         <v>17776000000</v>
       </c>
-      <c r="AI102" s="33" t="s">
+      <c r="AI102" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="AJ102" s="34">
+      <c r="AJ102" s="46">
         <f>AJ101/AJ103</f>
         <v>0.90138910197492039</v>
       </c>
@@ -12432,10 +12622,10 @@
       <c r="AB103" s="1">
         <v>36477000000</v>
       </c>
-      <c r="AI103" s="35" t="s">
+      <c r="AI103" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="AJ103" s="41">
+      <c r="AJ103" s="50">
         <f>AJ99+AJ101</f>
         <v>1420918000000</v>
       </c>
@@ -12525,422 +12715,504 @@
       <c r="AB104" s="11">
         <v>54253000000</v>
       </c>
-      <c r="AI104" s="66" t="s">
+      <c r="AI104" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="AJ104" s="67"/>
+      <c r="AJ104" s="42"/>
     </row>
     <row r="105" spans="1:36" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>0.27586206896551735</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-1.7302702702702701</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-140.87046632124353</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-0.29828275077395283</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-0.35858597285067872</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:Z105" si="14">(H106/G106)-1</f>
-        <v>-1.7943892817880931</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="14"/>
-        <v>1.5609718193120599</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.37961156912549598</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.10802279720250429</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="14"/>
-        <v>-8.1285444234404536E-2</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="14"/>
-        <v>1.4300411522633745</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.15495342929720568</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="14"/>
-        <v>1.1407624633431084</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.13835616438356169</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.16852146263910972</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.81118546845124284</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="14"/>
-        <v>4.141772151898734</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="14"/>
-        <v>-4.0374199901526353E-2</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="14"/>
-        <v>2.7614161108260649</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.32396671668258081</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="14"/>
-        <v>-0.33247475788172265</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="14"/>
-        <v>1.6695477697175489</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.25190795559666967</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="14"/>
-        <v>0.1972474945735001</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" ref="AA105" si="15">(AA106/Z106)-1</f>
-        <v>-1.5680450547754976</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" ref="AB105" si="16">(AB106/AA106)-1</f>
-        <v>0.14715469238082313</v>
-      </c>
-      <c r="AC105" s="60">
-        <v>32370000000</v>
-      </c>
-      <c r="AD105" s="60">
-        <v>48076000000</v>
-      </c>
-      <c r="AE105" s="60">
-        <v>64090000000</v>
-      </c>
-      <c r="AF105" s="60">
-        <v>97481000000</v>
-      </c>
-      <c r="AG105" s="60">
-        <v>75763000000</v>
-      </c>
-      <c r="AH105" s="15"/>
-      <c r="AI105" s="25" t="s">
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:AA105" si="16">(B22*(1-$AJ$91))+B77+B88+B81</f>
+        <v>51684.636118598282</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="16"/>
+        <v>10470670.485175204</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="16"/>
+        <v>4929435.3099730462</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="16"/>
+        <v>-52292628.874663055</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="16"/>
+        <v>78338553.908355832</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="16"/>
+        <v>62123625.505390853</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="16"/>
+        <v>120708162.39892183</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="16"/>
+        <v>213555732.64824796</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="16"/>
+        <v>292677799.02291107</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="16"/>
+        <v>267878706.19946092</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="16"/>
+        <v>451182446.09164417</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="16"/>
+        <v>1154024427.2237196</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="16"/>
+        <v>1053680256.06469</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="16"/>
+        <v>2134141340.9703503</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="16"/>
+        <v>1814021900.2695417</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="16"/>
+        <v>1130841307.2776279</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="16"/>
+        <v>206643530.99730444</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="16"/>
+        <v>917249157.68194056</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="16"/>
+        <v>908533355.7951479</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="16"/>
+        <v>5271831367.9245281</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="16"/>
+        <v>7212408018.8679237</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="16"/>
+        <v>1230763814.0161724</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="16"/>
+        <v>6560470855.7951469</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="16"/>
+        <v>9150542284.3665771</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="16"/>
+        <v>9080945586.2533722</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="16"/>
+        <v>-34972110343.665771</v>
+      </c>
+      <c r="AB105" s="1">
+        <f>(AB22*(1-$AJ$91))+AB77+AB88+AB81</f>
+        <v>-36999772237.196762</v>
+      </c>
+      <c r="AC105" s="27">
+        <f>AB105*(1+$AJ$106)</f>
+        <v>-40984165950.974899</v>
+      </c>
+      <c r="AD105" s="27">
+        <f t="shared" ref="AD105:AG105" si="17">AC105*(1+$AJ$106)</f>
+        <v>-45397626988.860367</v>
+      </c>
+      <c r="AE105" s="27">
+        <f t="shared" si="17"/>
+        <v>-50286360314.981087</v>
+      </c>
+      <c r="AF105" s="27">
+        <f t="shared" si="17"/>
+        <v>-55701546566.489029</v>
+      </c>
+      <c r="AG105" s="27">
+        <f t="shared" si="17"/>
+        <v>-61699877868.759064</v>
+      </c>
+      <c r="AH105" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI105" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="AJ105" s="26">
+      <c r="AJ105" s="52">
         <f>(AJ100*AJ92)+(AJ102*AJ97)</f>
-        <v>8.6642697078262942E-2</v>
+        <v>8.707471214289017E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-2900000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-3700000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>2702000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-377930000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-265200000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-170103000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>135128000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>346059000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>477427000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>529000000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>486000000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>1181000000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>1364000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>2920000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>2516000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>2092000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>395000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>2031000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>1949000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>7331000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>9706000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>6479000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>17296000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>21653000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>25924000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>-14726000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>-16893000000</v>
-      </c>
-      <c r="AC106" s="42">
-        <f>AB106*(1+$AJ$106)</f>
-        <v>-18700911441.866451</v>
-      </c>
-      <c r="AD106" s="42">
-        <f t="shared" ref="AD106:AG106" si="17">AC106*(1+$AJ$106)</f>
-        <v>-20702307982.982983</v>
-      </c>
-      <c r="AE106" s="42">
-        <f t="shared" si="17"/>
-        <v>-22917896657.314247</v>
-      </c>
-      <c r="AF106" s="42">
-        <f t="shared" si="17"/>
-        <v>-25370600593.280109</v>
-      </c>
-      <c r="AG106" s="42">
-        <f t="shared" si="17"/>
-        <v>-28085796183.146614</v>
-      </c>
-      <c r="AH106" s="43" t="s">
+      <c r="A106" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>0.27586206896551735</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>-1.7302702702702701</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>-140.87046632124353</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>-0.29828275077395283</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>-0.35858597285067872</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>-1.7943892817880931</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>1.5609718193120599</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>0.37961156912549598</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>0.10802279720250429</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>-8.1285444234404536E-2</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>1.4300411522633745</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>0.15495342929720568</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>1.1407624633431084</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>-0.13835616438356169</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>-0.16852146263910972</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>-0.81118546845124284</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>4.141772151898734</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>-4.0374199901526353E-2</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>2.7614161108260649</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>0.32396671668258081</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>-0.33247475788172265</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>1.6695477697175489</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>0.25190795559666967</v>
+      </c>
+      <c r="Z106" s="15">
+        <f>(Z107/Y107)-1</f>
+        <v>0.1972474945735001</v>
+      </c>
+      <c r="AA106" s="15">
+        <f>(AA107/Z107)-1</f>
+        <v>-1.5680450547754976</v>
+      </c>
+      <c r="AB106" s="15">
+        <f>(AB107/AA107)-1</f>
+        <v>0.14715469238082313</v>
+      </c>
+      <c r="AC106" s="30">
+        <v>32959000000</v>
+      </c>
+      <c r="AD106" s="30">
+        <v>47615000000</v>
+      </c>
+      <c r="AE106" s="30">
+        <v>66941000000</v>
+      </c>
+      <c r="AF106" s="30">
+        <v>92964000000</v>
+      </c>
+      <c r="AG106" s="30">
+        <v>96000000000</v>
+      </c>
+      <c r="AH106" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI106" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="AI106" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ106" s="45">
+      <c r="AJ106" s="54">
         <f>(SUM(AC4:AG4)/5)</f>
-        <v>0.10702133675880247</v>
+        <v>0.1076869794828772</v>
       </c>
     </row>
     <row r="107" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="1"/>
-      <c r="AC107" s="43"/>
-      <c r="AD107" s="43"/>
-      <c r="AE107" s="43"/>
-      <c r="AF107" s="43"/>
-      <c r="AG107" s="61">
-        <f>AG105*(1+AJ107)/(AJ108-AJ107)</f>
-        <v>1159590823721.4202</v>
-      </c>
-      <c r="AH107" s="47" t="s">
+      <c r="A107" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-2900000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-3700000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2702000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-377930000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-265200000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-170103000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>135128000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>346059000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>477427000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>529000000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>486000000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1181000000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>1364000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>2920000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>2516000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>2092000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>395000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>2031000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>1949000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>7331000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>9706000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>6479000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>17296000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>21653000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>25924000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>-14726000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>-16893000000</v>
+      </c>
+      <c r="AC107" s="28"/>
+      <c r="AD107" s="28"/>
+      <c r="AE107" s="28"/>
+      <c r="AF107" s="28"/>
+      <c r="AG107" s="31">
+        <f>AG106*(1+AJ107)/(AJ108-AJ107)</f>
+        <v>1459864632611.4631</v>
+      </c>
+      <c r="AH107" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI107" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="AI107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ107" s="49">
+      <c r="AJ107" s="56">
         <v>0.02</v>
       </c>
     </row>
     <row r="108" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AC108" s="46">
-        <f t="shared" ref="AC108:AE108" si="18">AC107+AC106</f>
-        <v>-18700911441.866451</v>
-      </c>
-      <c r="AD108" s="46">
+      <c r="AC108" s="31">
+        <f t="shared" ref="AC108:AF108" si="18">AC107+AC106</f>
+        <v>32959000000</v>
+      </c>
+      <c r="AD108" s="31">
         <f t="shared" si="18"/>
-        <v>-20702307982.982983</v>
-      </c>
-      <c r="AE108" s="46">
+        <v>47615000000</v>
+      </c>
+      <c r="AE108" s="31">
         <f t="shared" si="18"/>
-        <v>-22917896657.314247</v>
-      </c>
-      <c r="AF108" s="46">
-        <f>AF107+AF106</f>
-        <v>-25370600593.280109</v>
-      </c>
-      <c r="AG108" s="61">
-        <f>AG107+AG105</f>
-        <v>1235353823721.4202</v>
-      </c>
-      <c r="AH108" s="47" t="s">
+        <v>66941000000</v>
+      </c>
+      <c r="AF108" s="31">
+        <f t="shared" si="18"/>
+        <v>92964000000</v>
+      </c>
+      <c r="AG108" s="31">
+        <f>AG107+AG106</f>
+        <v>1555864632611.4631</v>
+      </c>
+      <c r="AH108" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="AI108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ108" s="51">
+      <c r="AI108" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ108" s="54">
         <f>AJ105</f>
-        <v>8.6642697078262942E-2</v>
+        <v>8.707471214289017E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AC109" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD109" s="63"/>
+      <c r="AC109" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD109" s="32"/>
     </row>
     <row r="110" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD110" s="40">
+      <c r="AC110" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD110" s="34">
         <f>NPV(AJ108,AC108,AD108,AE108,AF108,AG108)</f>
-        <v>744575225042.82825</v>
+        <v>1214174812020.4641</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD111" s="40">
+      <c r="AC111" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD111" s="34">
         <f>AB40</f>
         <v>70026000000</v>
       </c>
     </row>
     <row r="112" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC112" s="52" t="s">
+      <c r="AC112" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="AD112" s="40">
+      <c r="AD112" s="34">
         <f>AJ99</f>
         <v>140118000000</v>
       </c>
     </row>
     <row r="113" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD113" s="40">
+      <c r="AC113" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD113" s="34">
         <f>AD110+AD111-AD112</f>
-        <v>674483225042.82825</v>
+        <v>1144082812020.4641</v>
       </c>
     </row>
     <row r="114" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC114" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD114" s="53">
+      <c r="AC114" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD114" s="33">
         <f>AB34*(1+(5*AH16))</f>
         <v>10526569389.096916</v>
       </c>
     </row>
     <row r="115" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC115" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD115" s="55">
+      <c r="AC115" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD115" s="36">
         <f>AD113/AD114</f>
-        <v>64.074362701815886</v>
+        <v>108.68524870082256</v>
       </c>
     </row>
     <row r="116" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC116" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD116" s="56" cm="1">
+      <c r="AC116" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD116" s="37" cm="1">
         <f t="array" ref="AD116">_FV(A1,"Price")</f>
         <v>130.15</v>
       </c>
     </row>
     <row r="117" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC117" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD117" s="58">
+      <c r="AC117" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD117" s="38">
         <f>AD115/AD116-1</f>
-        <v>-0.50768833882584796</v>
+        <v>-0.16492317556033387</v>
       </c>
     </row>
     <row r="118" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD118" s="59" t="str">
+      <c r="AC118" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD118" s="39" t="str">
         <f>IF(AD115&gt;AD116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -13010,9 +13282,10 @@
     <hyperlink ref="AA74" r:id="rId53" tooltip="https://www.sec.gov/Archives/edgar/data/1018724/000101872422000005/0001018724-22-000005-index.htm" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="AB36" r:id="rId54" tooltip="https://www.sec.gov/Archives/edgar/data/1018724/000101872423000004/0001018724-23-000004-index.htm" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="AB74" r:id="rId55" tooltip="https://www.sec.gov/Archives/edgar/data/1018724/000101872423000004/0001018724-23-000004-index.htm" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="AC1" r:id="rId56" display="https://finbox.com/NYSE:UPS/explorer/revenue_proj" xr:uid="{66626B1B-B5B1-2E48-B56E-B5F761D478CD}"/>
+    <hyperlink ref="AC1" r:id="rId56" display="https://finbox.com/NASDAQGS:AMZN/explorer/revenue_proj" xr:uid="{66626B1B-B5B1-2E48-B56E-B5F761D478CD}"/>
+    <hyperlink ref="AH106" r:id="rId57" xr:uid="{28D7E9E9-87D7-584E-B3B8-CD914C0D6564}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId57"/>
+  <drawing r:id="rId58"/>
 </worksheet>
 </file>
--- a/Technology/Software/Amazon.xlsx
+++ b/Technology/Software/Amazon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAE34F6-F402-D645-BDC8-E8D56D50DD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE25D549-67ED-6A4E-B9A6-D8E45138F58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="257">
   <si>
     <t>2010 Y</t>
   </si>
@@ -842,6 +842,9 @@
   </si>
   <si>
     <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Daily Change %</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1084,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1345,12 +1348,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1429,7 +1450,6 @@
     <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1457,9 +1477,6 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1701,6 +1718,18 @@
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1734,10 +1763,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Watchlist"/>
       <sheetName val="Highest Quality"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Value"/>
-      <sheetName val="Watchlist"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1754,7 +1783,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.845E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1893,11 +1922,11 @@
     <v>Powered by Refinitiv</v>
     <v>145.86000000000001</v>
     <v>81.430000000000007</v>
-    <v>1.1741999999999999</v>
-    <v>8.17</v>
-    <v>6.8328E-2</v>
-    <v>-0.02</v>
-    <v>-1.5660000000000001E-4</v>
+    <v>1.1762999999999999</v>
+    <v>-1.48</v>
+    <v>-1.0417000000000001E-2</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content that it purchased for resale and products offered by third-party sellers. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, and Ring, and it develops and produces media content. It also offers subscription services such as Amazon Prime, a membership program. Its segments include North America, International and Amazon Web Services (AWS). The AWS segment consists of global sales of compute, storage, database, and other services for start-ups, enterprises, government agencies, and academic institutions. It provides advertising services to sellers, vendors, publishers, authors, and others, through programs, such as sponsored advertisements, display, and video advertising. Customers access its offerings through websites, mobile applications, Alexa, devices, streaming, and physically visiting its stores.</v>
     <v>1500000</v>
@@ -1905,25 +1934,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>410 Terry Ave N, SEATTLE, WA, 98109 US</v>
-    <v>130.02000000000001</v>
+    <v>142.65</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45226.999989339842</v>
+    <v>45239.925481284372</v>
     <v>0</v>
-    <v>125.52</v>
-    <v>1317990000000</v>
+    <v>139.84</v>
+    <v>1452964618000</v>
     <v>AMAZON.COM, INC.</v>
     <v>AMAZON.COM, INC.</v>
-    <v>126.2</v>
-    <v>66.689599999999999</v>
-    <v>119.57</v>
-    <v>127.74</v>
-    <v>127.72</v>
-    <v>10317750000</v>
+    <v>142.02000000000001</v>
+    <v>74.176199999999994</v>
+    <v>142.08000000000001</v>
+    <v>140.6</v>
+    <v>140.6</v>
+    <v>10334030000</v>
     <v>AMZN</v>
     <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>125309313</v>
-    <v>53512521</v>
+    <v>36134647</v>
+    <v>55271186</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -14043,7 +14072,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14051,48 +14080,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="127" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="e" vm="1">
+    <row r="1" spans="1:16" s="125" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="124" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-    </row>
-    <row r="2" spans="1:16" s="127" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+    </row>
+    <row r="2" spans="1:16" s="125" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>1317990000000</v>
+        <v>1452964618000</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>201</v>
@@ -14120,1768 +14149,1773 @@
       </c>
       <c r="I3" s="39">
         <f>J20*(1+I7)/(I6-I7)</f>
-        <v>2034396704309.4583</v>
+        <v>1997793531081.1467</v>
       </c>
       <c r="J3" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="130" t="s">
+      <c r="K3" s="49">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="M3" s="41"/>
+      <c r="N3" s="128" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="131"/>
-      <c r="P3" s="42"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43">
+      <c r="A4" s="42">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-74944000000</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="44">
         <f>Financials!O17*0.01</f>
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <f>AVERAGE(C18:E18)</f>
         <v>0.10776906724378484</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <f>A5*(1+(5*G3))</f>
-        <v>10863502001.565561</v>
-      </c>
-      <c r="H4" s="48" t="s">
+        <v>10880643123.669266</v>
+      </c>
+      <c r="H4" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="48">
         <f>NPV(I6,F20,G20,H20,I20,(J20+I3))</f>
-        <v>1671858654332.2646</v>
-      </c>
-      <c r="J4" s="46" t="s">
+        <v>1639753909770.0969</v>
+      </c>
+      <c r="J4" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="50">
-        <f>(Financials!O172*-1)/Model!A3</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="132" t="s">
+      <c r="K4" s="132" cm="1">
+        <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
+        <v>-1.0417000000000001E-2</v>
+      </c>
+      <c r="L4" s="134" t="s">
+        <v>256</v>
+      </c>
+      <c r="M4" s="41"/>
+      <c r="N4" s="130" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="133"/>
-      <c r="P4" s="42"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" cm="1">
+      <c r="A5" s="46" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>10317750000</v>
-      </c>
-      <c r="B5" s="44" t="s">
+        <v>10334030000</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="50">
         <f>Financials!O34*0.01</f>
         <v>2.4300000000000002E-2</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="44">
         <f>AVERAGE(C21:E21)</f>
         <v>-0.33456495356799903</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="46">
         <f>Financials!O56</f>
         <v>63970000000</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="48">
         <f>I4+G5-G6</f>
-        <v>1596914654332.2646</v>
-      </c>
-      <c r="J5" s="46" t="s">
+        <v>1564809909770.0969</v>
+      </c>
+      <c r="J5" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="52" cm="1">
+      <c r="K5" s="133" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>127.74</v>
-      </c>
-      <c r="L5" s="35" t="s">
+        <v>140.6</v>
+      </c>
+      <c r="L5" s="135" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="42"/>
-      <c r="N5" s="53" t="s">
+      <c r="M5" s="41"/>
+      <c r="N5" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O5" s="52">
         <f>Financials!O21</f>
         <v>2974000000</v>
       </c>
-      <c r="P5" s="42"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55">
+      <c r="A6" s="53">
         <f>O20/F10</f>
-        <v>2.312263157894737</v>
-      </c>
-      <c r="B6" s="44" t="s">
+        <v>2.5490607333333335</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <f>Financials!O190</f>
         <v>1.1251295573240949E-2</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="44">
         <f>Financials!O33/Financials!O126</f>
         <v>7.753170187779504E-2</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="48">
         <f>Financials!O96+Financials!O105</f>
         <v>138914000000</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="55">
         <f>N25</f>
-        <v>8.3545611948593959E-2</v>
-      </c>
-      <c r="J6" s="48" t="s">
+        <v>8.4618272933111305E-2</v>
+      </c>
+      <c r="J6" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="56">
         <f>I5/G4</f>
-        <v>146.99814609525825</v>
-      </c>
-      <c r="L6" s="59" t="s">
+        <v>143.81593918525635</v>
+      </c>
+      <c r="L6" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="60" t="s">
+      <c r="M6" s="41"/>
+      <c r="N6" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="61">
+      <c r="O6" s="59">
         <f>Financials!O96</f>
         <v>0</v>
       </c>
-      <c r="P6" s="42"/>
+      <c r="P6" s="41"/>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62">
+      <c r="A7" s="60">
         <f>O20/F17</f>
-        <v>57.847173455056179</v>
-      </c>
-      <c r="B7" s="63" t="s">
+        <v>63.771270101825841</v>
+      </c>
+      <c r="B7" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="62">
         <f>F20/A3</f>
-        <v>3.9302270882176644E-2</v>
-      </c>
-      <c r="D7" s="65" t="s">
+        <v>3.5651246670619204E-2</v>
+      </c>
+      <c r="D7" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="66">
+      <c r="E7" s="64">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>4.3209946799516126E-2</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="65">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.82391667951744341</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="69">
+      <c r="I7" s="67">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>0.15076049863205143</v>
-      </c>
-      <c r="L7" s="72" t="s">
+        <v>2.2872967178210191E-2</v>
+      </c>
+      <c r="L7" s="70" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="60" t="s">
+      <c r="M7" s="41"/>
+      <c r="N7" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="61">
+      <c r="O7" s="59">
         <f>Financials!O105</f>
         <v>138914000000</v>
       </c>
-      <c r="P7" s="42"/>
+      <c r="P7" s="41"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="74" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="72" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="75">
+      <c r="O8" s="73">
         <f>O5/(O6+O7)</f>
         <v>2.140892926558878E-2</v>
       </c>
-      <c r="P8" s="42"/>
+      <c r="P8" s="41"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75">
         <v>2019</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="75">
         <v>2020</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="75">
         <v>2021</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="75">
         <v>2022</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="76">
         <v>2023</v>
       </c>
-      <c r="G9" s="79">
+      <c r="G9" s="77">
         <v>2024</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="77">
         <v>2025</v>
       </c>
-      <c r="I9" s="79">
+      <c r="I9" s="77">
         <v>2026</v>
       </c>
-      <c r="J9" s="79">
+      <c r="J9" s="77">
         <v>2027</v>
       </c>
-      <c r="K9" s="80"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="60" t="s">
+      <c r="K9" s="78"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="61">
+      <c r="O9" s="59">
         <f>Financials!O25</f>
         <v>594000000</v>
       </c>
-      <c r="P9" s="42"/>
+      <c r="P9" s="41"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="104">
+      <c r="B10" s="102">
         <v>280522000000</v>
       </c>
-      <c r="C10" s="104">
+      <c r="C10" s="102">
         <v>386064000000</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="102">
         <v>469822000000</v>
       </c>
-      <c r="E10" s="104">
+      <c r="E10" s="102">
         <v>513983000000</v>
       </c>
-      <c r="F10" s="105">
+      <c r="F10" s="103">
         <v>570000000000</v>
       </c>
-      <c r="G10" s="104">
+      <c r="G10" s="102">
         <v>636000000000</v>
       </c>
-      <c r="H10" s="104">
+      <c r="H10" s="102">
         <v>712000000000</v>
       </c>
-      <c r="I10" s="104">
+      <c r="I10" s="102">
         <v>801000000000</v>
       </c>
-      <c r="J10" s="104">
+      <c r="J10" s="102">
         <v>893500000000</v>
       </c>
-      <c r="K10" s="107" t="s">
+      <c r="K10" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="L10" s="117"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="60" t="s">
+      <c r="L10" s="115"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="61">
+      <c r="O10" s="59">
         <f>Financials!O24</f>
         <v>13664000000</v>
       </c>
-      <c r="P10" s="42"/>
+      <c r="P10" s="41"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="83"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84">
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.37623430604373276</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="82">
         <f t="shared" si="0"/>
         <v>0.21695366571345676</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="82">
         <f t="shared" si="0"/>
         <v>9.399517263985091E-2</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="83">
         <f t="shared" si="0"/>
         <v>0.1089860948708421</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="82">
         <f t="shared" si="0"/>
         <v>0.11578947368421044</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="82">
         <f t="shared" si="0"/>
         <v>0.11949685534591192</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="82">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="82">
         <f t="shared" si="0"/>
         <v>0.11548064918851431</v>
       </c>
-      <c r="K11" s="116">
+      <c r="K11" s="114">
         <f>SUM(F11:J11)/5</f>
         <v>0.11695061461789576</v>
       </c>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="60" t="s">
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="86">
+      <c r="O11" s="84">
         <f>O9/O10</f>
         <v>4.3471896955503513E-2</v>
       </c>
-      <c r="P11" s="42"/>
+      <c r="P11" s="41"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="109" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="108">
+      <c r="B12" s="106">
         <v>141200000000</v>
       </c>
-      <c r="C12" s="108">
+      <c r="C12" s="106">
         <v>197200000000</v>
       </c>
-      <c r="D12" s="108">
+      <c r="D12" s="106">
         <v>222000000000</v>
       </c>
-      <c r="E12" s="109">
+      <c r="E12" s="107">
         <v>220000000000</v>
       </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="87" t="s">
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="88">
+      <c r="O12" s="86">
         <f>O8*(1-O11)</f>
         <v>2.0478242498627442E-2</v>
       </c>
-      <c r="P12" s="42"/>
+      <c r="P12" s="41"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="80" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="96">
+      <c r="B13" s="94">
         <v>53700000000</v>
       </c>
-      <c r="C13" s="96">
+      <c r="C13" s="94">
         <v>80400000000</v>
       </c>
-      <c r="D13" s="96">
+      <c r="D13" s="94">
         <v>103300000000</v>
       </c>
-      <c r="E13" s="95">
+      <c r="E13" s="93">
         <v>117700000000</v>
       </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="132" t="s">
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="130" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="133"/>
-      <c r="P13" s="42"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="41"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="80" t="s">
         <v>250</v>
       </c>
-      <c r="B14" s="96">
+      <c r="B14" s="94">
         <v>35000000000</v>
       </c>
-      <c r="C14" s="96">
+      <c r="C14" s="94">
         <v>45300000000</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="94">
         <v>62200000000</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="93">
         <v>80000000000</v>
       </c>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="60" t="s">
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="86">
+      <c r="O14" s="84">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.845E-2</v>
-      </c>
-      <c r="P14" s="42"/>
+        <v>4.5710000000000001E-2</v>
+      </c>
+      <c r="P14" s="41"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="96">
+      <c r="B15" s="94">
         <v>19200000000</v>
       </c>
-      <c r="C15" s="96">
+      <c r="C15" s="94">
         <v>25200000000</v>
       </c>
-      <c r="D15" s="96">
+      <c r="D15" s="94">
         <v>31700000000</v>
       </c>
-      <c r="E15" s="95">
+      <c r="E15" s="93">
         <v>35200000000</v>
       </c>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="60" t="s">
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="89" cm="1">
+      <c r="O15" s="87" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1741999999999999</v>
-      </c>
-      <c r="P15" s="42"/>
+        <v>1.1762999999999999</v>
+      </c>
+      <c r="P15" s="41"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="110" t="s">
         <v>254</v>
       </c>
-      <c r="B16" s="120">
+      <c r="B16" s="118">
         <f>37700000000+4200000000+18900000000</f>
         <v>60800000000</v>
       </c>
-      <c r="C16" s="120">
+      <c r="C16" s="118">
         <f>15500000000+5900000000+16200000000</f>
         <v>37600000000</v>
       </c>
-      <c r="D16" s="120">
+      <c r="D16" s="118">
         <f>31100000000+3400000000+17000000000</f>
         <v>51500000000</v>
       </c>
-      <c r="E16" s="97">
+      <c r="E16" s="95">
         <f>37700000000+4200000000+18900000000</f>
         <v>60800000000</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="60" t="s">
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="86">
+      <c r="O16" s="84">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="P16" s="42"/>
+      <c r="P16" s="41"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="120">
+      <c r="B17" s="118">
         <v>11588000000</v>
       </c>
-      <c r="C17" s="120">
+      <c r="C17" s="118">
         <v>21331000000</v>
       </c>
-      <c r="D17" s="120">
+      <c r="D17" s="118">
         <v>33364000000</v>
       </c>
-      <c r="E17" s="120">
+      <c r="E17" s="118">
         <v>-2722000000</v>
       </c>
-      <c r="F17" s="105">
+      <c r="F17" s="103">
         <v>22784000000</v>
       </c>
-      <c r="G17" s="104">
+      <c r="G17" s="102">
         <v>32581000000</v>
       </c>
-      <c r="H17" s="104">
+      <c r="H17" s="102">
         <v>45725000000</v>
       </c>
-      <c r="I17" s="104">
+      <c r="I17" s="102">
         <v>62114000000</v>
       </c>
-      <c r="J17" s="104">
+      <c r="J17" s="102">
         <v>78085000000</v>
       </c>
-      <c r="K17" s="106" t="s">
+      <c r="K17" s="104" t="s">
         <v>238</v>
       </c>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="90" t="s">
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="91">
+      <c r="O17" s="89">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.0192810000000012E-2</v>
-      </c>
-      <c r="P17" s="42"/>
+        <v>9.0750526999999998E-2</v>
+      </c>
+      <c r="P17" s="41"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="83"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84">
+      <c r="A18" s="81"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82">
         <f t="shared" ref="C18" si="1">(C17/B17)-1</f>
         <v>0.84078356920952713</v>
       </c>
-      <c r="D18" s="84">
+      <c r="D18" s="82">
         <f t="shared" ref="D18" si="2">(D17/C17)-1</f>
         <v>0.56410857437532225</v>
       </c>
-      <c r="E18" s="84">
+      <c r="E18" s="82">
         <f t="shared" ref="E18" si="3">(E17/D17)-1</f>
         <v>-1.0815849418534949</v>
       </c>
-      <c r="F18" s="85">
+      <c r="F18" s="83">
         <f t="shared" ref="F18" si="4">(F17/E17)-1</f>
         <v>-9.3703159441587065</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="82">
         <f t="shared" ref="G18" si="5">(G17/F17)-1</f>
         <v>0.4299947331460674</v>
       </c>
-      <c r="H18" s="84">
+      <c r="H18" s="82">
         <f t="shared" ref="H18" si="6">(H17/G17)-1</f>
         <v>0.40342530922930542</v>
       </c>
-      <c r="I18" s="84">
+      <c r="I18" s="82">
         <f t="shared" ref="I18" si="7">(I17/H17)-1</f>
         <v>0.35842536905412792</v>
       </c>
-      <c r="J18" s="84">
+      <c r="J18" s="82">
         <f t="shared" ref="J18" si="8">(J17/I17)-1</f>
         <v>0.25712399781047757</v>
       </c>
-      <c r="K18" s="116">
+      <c r="K18" s="114">
         <f>SUM(F18:J18)/5</f>
         <v>-1.5842693069837455</v>
       </c>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="132" t="s">
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="130" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="133"/>
-      <c r="P18" s="42"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="41"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="119" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="118">
+      <c r="B19" s="116">
         <f>B17/B10</f>
         <v>4.1308703060722513E-2</v>
       </c>
-      <c r="C19" s="118">
+      <c r="C19" s="116">
         <f t="shared" ref="C19:J19" si="9">C17/C10</f>
         <v>5.5252496995316841E-2</v>
       </c>
-      <c r="D19" s="118">
+      <c r="D19" s="116">
         <f t="shared" si="9"/>
         <v>7.1014128755145567E-2</v>
       </c>
-      <c r="E19" s="118">
+      <c r="E19" s="116">
         <f t="shared" si="9"/>
         <v>-5.2958950004183018E-3</v>
       </c>
-      <c r="F19" s="118">
+      <c r="F19" s="116">
         <f t="shared" si="9"/>
         <v>3.9971929824561402E-2</v>
       </c>
-      <c r="G19" s="118">
+      <c r="G19" s="116">
         <f t="shared" si="9"/>
         <v>5.1227987421383646E-2</v>
       </c>
-      <c r="H19" s="118">
+      <c r="H19" s="116">
         <f t="shared" si="9"/>
         <v>6.4220505617977527E-2</v>
       </c>
-      <c r="I19" s="118">
+      <c r="I19" s="116">
         <f t="shared" si="9"/>
         <v>7.7545568039950066E-2</v>
       </c>
-      <c r="J19" s="118">
+      <c r="J19" s="116">
         <f t="shared" si="9"/>
         <v>8.7392277560156689E-2</v>
       </c>
-      <c r="K19" s="119"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="60" t="s">
+      <c r="K19" s="117"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="92">
+      <c r="O19" s="90">
         <f>O6+O7</f>
         <v>138914000000</v>
       </c>
-      <c r="P19" s="42"/>
+      <c r="P19" s="41"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="104">
+      <c r="B20" s="102">
         <v>22981219805</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="102">
         <v>27375973075</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="102">
         <v>-13144174098</v>
       </c>
-      <c r="E20" s="104">
+      <c r="E20" s="102">
         <v>-16893000000</v>
       </c>
-      <c r="F20" s="105">
+      <c r="F20" s="103">
         <v>51800000000</v>
       </c>
-      <c r="G20" s="104">
+      <c r="G20" s="102">
         <v>61300000000</v>
       </c>
-      <c r="H20" s="104">
+      <c r="H20" s="102">
         <v>75600000000</v>
       </c>
-      <c r="I20" s="104">
+      <c r="I20" s="102">
         <v>100000000000</v>
       </c>
-      <c r="J20" s="104">
+      <c r="J20" s="102">
         <v>116200000000</v>
       </c>
-      <c r="K20" s="106" t="s">
+      <c r="K20" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="60" t="s">
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="92" cm="1">
+      <c r="O20" s="90" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>1317990000000</v>
-      </c>
-      <c r="P20" s="42"/>
+        <v>1452964618000</v>
+      </c>
+      <c r="P20" s="41"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="84"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="84">
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82">
         <f t="shared" ref="C21:J21" si="10">(C20/B20)-1</f>
         <v>0.19123237614409994</v>
       </c>
-      <c r="D21" s="84">
+      <c r="D21" s="82">
         <f t="shared" si="10"/>
         <v>-1.4801354115154133</v>
       </c>
-      <c r="E21" s="84">
+      <c r="E21" s="82">
         <f t="shared" si="10"/>
         <v>0.28520817466731629</v>
       </c>
-      <c r="F21" s="85">
+      <c r="F21" s="83">
         <f t="shared" si="10"/>
         <v>-4.0663588468596465</v>
       </c>
-      <c r="G21" s="84">
+      <c r="G21" s="82">
         <f t="shared" si="10"/>
         <v>0.18339768339768336</v>
       </c>
-      <c r="H21" s="84">
+      <c r="H21" s="82">
         <f t="shared" si="10"/>
         <v>0.23327895595432291</v>
       </c>
-      <c r="I21" s="84">
+      <c r="I21" s="82">
         <f t="shared" si="10"/>
         <v>0.32275132275132279</v>
       </c>
-      <c r="J21" s="84">
+      <c r="J21" s="82">
         <f t="shared" si="10"/>
         <v>0.16199999999999992</v>
       </c>
-      <c r="K21" s="116">
+      <c r="K21" s="114">
         <f>SUM(F21:J21)/5</f>
         <v>-0.63298617695126347</v>
       </c>
-      <c r="M21" s="81"/>
-      <c r="N21" s="60" t="s">
+      <c r="M21" s="79"/>
+      <c r="N21" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="92">
+      <c r="O21" s="90">
         <f>O19+O20</f>
-        <v>1456904000000</v>
-      </c>
-      <c r="P21" s="42"/>
+        <v>1591878618000</v>
+      </c>
+      <c r="P21" s="41"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="119" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="118">
+      <c r="B22" s="116">
         <f>B20/B10</f>
         <v>8.1923057032959976E-2</v>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="116">
         <f t="shared" ref="C22:J22" si="11">C20/C10</f>
         <v>7.091045286532803E-2</v>
       </c>
-      <c r="D22" s="118">
+      <c r="D22" s="116">
         <f t="shared" si="11"/>
         <v>-2.7976923383749592E-2</v>
       </c>
-      <c r="E22" s="118">
+      <c r="E22" s="116">
         <f t="shared" si="11"/>
         <v>-3.2866845790619534E-2</v>
       </c>
-      <c r="F22" s="118">
+      <c r="F22" s="116">
         <f t="shared" si="11"/>
         <v>9.087719298245614E-2</v>
       </c>
-      <c r="G22" s="118">
+      <c r="G22" s="116">
         <f t="shared" si="11"/>
         <v>9.6383647798742145E-2</v>
       </c>
-      <c r="H22" s="118">
+      <c r="H22" s="116">
         <f t="shared" si="11"/>
         <v>0.10617977528089888</v>
       </c>
-      <c r="I22" s="118">
+      <c r="I22" s="116">
         <f t="shared" si="11"/>
         <v>0.12484394506866417</v>
       </c>
-      <c r="J22" s="118">
+      <c r="J22" s="116">
         <f t="shared" si="11"/>
         <v>0.13005036373810855</v>
       </c>
-      <c r="K22" s="119"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="74" t="s">
+      <c r="K22" s="117"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="93">
+      <c r="O22" s="91">
         <f>(O19/O21)</f>
-        <v>9.5348766974351087E-2</v>
-      </c>
-      <c r="P22" s="42"/>
+        <v>8.7264191144503456E-2</v>
+      </c>
+      <c r="P22" s="41"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="100">
+      <c r="B23" s="98">
         <v>8.7061429768889947E-2</v>
       </c>
-      <c r="C23" s="100">
+      <c r="C23" s="98">
         <v>9.6596885141709735E-2</v>
       </c>
-      <c r="D23" s="100">
+      <c r="D23" s="98">
         <v>7.3276979264844486E-2</v>
       </c>
-      <c r="E23" s="101">
+      <c r="E23" s="99">
         <v>3.2100810382966236E-2</v>
       </c>
-      <c r="F23" s="102"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="90" t="s">
+      <c r="F23" s="100"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="88" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="94">
+      <c r="O23" s="92">
         <f>O20/O21</f>
-        <v>0.90465123302564887</v>
-      </c>
-      <c r="P23" s="42"/>
+        <v>0.91273580885549654</v>
+      </c>
+      <c r="P23" s="41"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="81"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="122" t="s">
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="120" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="123"/>
-      <c r="P24" s="42"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="41"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="129" t="str" cm="1">
+      <c r="A25" s="127" t="str" cm="1">
         <f t="array" ref="A25">_FV(A1,"Industry")</f>
         <v>Diversified Retail</v>
       </c>
-      <c r="B25" s="129"/>
-      <c r="C25" s="128" cm="1">
+      <c r="B25" s="127"/>
+      <c r="C25" s="126" cm="1">
         <f t="array" ref="C25">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1996</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="124">
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="122">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.3545611948593959E-2</v>
-      </c>
-      <c r="O25" s="125"/>
-      <c r="P25" s="42"/>
+        <v>8.4618272933111305E-2</v>
+      </c>
+      <c r="O25" s="123"/>
+      <c r="P25" s="41"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="129" t="str" cm="1">
+      <c r="A26" s="127" t="str" cm="1">
         <f t="array" ref="A26">_FV(A1,"Description")</f>
         <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content that it purchased for resale and products offered by third-party sellers. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, and Ring, and it develops and produces media content. It also offers subscription services such as Amazon Prime, a membership program. Its segments include North America, International and Amazon Web Services (AWS). The AWS segment consists of global sales of compute, storage, database, and other services for start-ups, enterprises, government agencies, and academic institutions. It provides advertising services to sellers, vendors, publishers, authors, and others, through programs, such as sponsored advertisements, display, and video advertising. Customers access its offerings through websites, mobile applications, Alexa, devices, streaming, and physically visiting its stores.</v>
       </c>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="81"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="129"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="129"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="129"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="129"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="81"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
+      <c r="A30" s="127"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
     </row>
     <row r="31" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="129"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
     </row>
     <row r="32" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="129"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
     </row>
     <row r="33" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="129"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="79"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="79"/>
     </row>
     <row r="34" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="129"/>
-      <c r="B34" s="129"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="129"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="127"/>
+      <c r="C34" s="127"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
     </row>
     <row r="35" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="129"/>
-      <c r="B35" s="129"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="81"/>
-      <c r="I35" s="81"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
     </row>
     <row r="36" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="129"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="127"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
     </row>
     <row r="37" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="81"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="81"/>
-      <c r="O37" s="81"/>
-      <c r="P37" s="81"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
     </row>
     <row r="38" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="81"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="81"/>
-      <c r="O38" s="81"/>
-      <c r="P38" s="81"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
     </row>
     <row r="39" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="81"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="79"/>
     </row>
     <row r="40" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="81"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="81"/>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="81"/>
-      <c r="P40" s="81"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="81"/>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-      <c r="N41" s="81"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="81"/>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="79"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="79"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="81"/>
-      <c r="B43" s="81"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="81"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
-      <c r="L44" s="81"/>
-      <c r="M44" s="81"/>
-      <c r="N44" s="81"/>
-      <c r="O44" s="81"/>
-      <c r="P44" s="81"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="79"/>
+      <c r="O44" s="79"/>
+      <c r="P44" s="79"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="81"/>
-      <c r="B45" s="81"/>
-      <c r="C45" s="81"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="81"/>
-      <c r="I45" s="81"/>
-      <c r="J45" s="81"/>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="81"/>
-      <c r="N45" s="81"/>
-      <c r="O45" s="81"/>
-      <c r="P45" s="81"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="79"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="81"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="79"/>
+      <c r="P46" s="79"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="81"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="81"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81"/>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="79"/>
+      <c r="P48" s="79"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="81"/>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="81"/>
-      <c r="I49" s="81"/>
-      <c r="J49" s="81"/>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="81"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="79"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="79"/>
+      <c r="L49" s="79"/>
+      <c r="M49" s="79"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="79"/>
+      <c r="P49" s="79"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="81"/>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="81"/>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="81"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="79"/>
+      <c r="O50" s="79"/>
+      <c r="P50" s="79"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="81"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="81"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="79"/>
+      <c r="J51" s="79"/>
+      <c r="K51" s="79"/>
+      <c r="L51" s="79"/>
+      <c r="M51" s="79"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="79"/>
+      <c r="P51" s="79"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="81"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="81"/>
-      <c r="I52" s="81"/>
-      <c r="J52" s="81"/>
-      <c r="K52" s="81"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="81"/>
-      <c r="N52" s="81"/>
-      <c r="O52" s="81"/>
-      <c r="P52" s="81"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="79"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="79"/>
+      <c r="O52" s="79"/>
+      <c r="P52" s="79"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="81"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="81"/>
-      <c r="I53" s="81"/>
-      <c r="J53" s="81"/>
-      <c r="K53" s="81"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="81"/>
-      <c r="N53" s="81"/>
-      <c r="O53" s="81"/>
-      <c r="P53" s="81"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="79"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
+      <c r="N53" s="79"/>
+      <c r="O53" s="79"/>
+      <c r="P53" s="79"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="81"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="81"/>
-      <c r="I54" s="81"/>
-      <c r="J54" s="81"/>
-      <c r="K54" s="81"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="81"/>
-      <c r="N54" s="81"/>
-      <c r="O54" s="81"/>
-      <c r="P54" s="81"/>
+      <c r="A54" s="79"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="79"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="79"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="79"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="81"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="81"/>
-      <c r="I55" s="81"/>
-      <c r="J55" s="81"/>
-      <c r="K55" s="81"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="81"/>
-      <c r="N55" s="81"/>
-      <c r="O55" s="81"/>
-      <c r="P55" s="81"/>
+      <c r="A55" s="79"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="79"/>
+      <c r="O55" s="79"/>
+      <c r="P55" s="79"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="81"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="81"/>
-      <c r="I56" s="81"/>
-      <c r="J56" s="81"/>
-      <c r="K56" s="81"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="81"/>
-      <c r="N56" s="81"/>
-      <c r="O56" s="81"/>
-      <c r="P56" s="81"/>
+      <c r="A56" s="79"/>
+      <c r="B56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="79"/>
+      <c r="M56" s="79"/>
+      <c r="N56" s="79"/>
+      <c r="O56" s="79"/>
+      <c r="P56" s="79"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="81"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="81"/>
-      <c r="I57" s="81"/>
-      <c r="J57" s="81"/>
-      <c r="K57" s="81"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="81"/>
-      <c r="N57" s="81"/>
-      <c r="O57" s="81"/>
-      <c r="P57" s="81"/>
+      <c r="A57" s="79"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="79"/>
+      <c r="O57" s="79"/>
+      <c r="P57" s="79"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="81"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="81"/>
-      <c r="I58" s="81"/>
-      <c r="J58" s="81"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="81"/>
-      <c r="N58" s="81"/>
-      <c r="O58" s="81"/>
-      <c r="P58" s="81"/>
+      <c r="A58" s="79"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="79"/>
+      <c r="I58" s="79"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="79"/>
+      <c r="O58" s="79"/>
+      <c r="P58" s="79"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="81"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="81"/>
-      <c r="I59" s="81"/>
-      <c r="J59" s="81"/>
-      <c r="K59" s="81"/>
-      <c r="L59" s="81"/>
-      <c r="M59" s="81"/>
-      <c r="N59" s="81"/>
-      <c r="O59" s="81"/>
-      <c r="P59" s="81"/>
+      <c r="A59" s="79"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="79"/>
+      <c r="O59" s="79"/>
+      <c r="P59" s="79"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="81"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="81"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="81"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="81"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="81"/>
-      <c r="O60" s="81"/>
-      <c r="P60" s="81"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
+      <c r="P60" s="79"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="81"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="81"/>
-      <c r="N61" s="81"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="81"/>
+      <c r="A61" s="79"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="79"/>
+      <c r="H61" s="79"/>
+      <c r="I61" s="79"/>
+      <c r="J61" s="79"/>
+      <c r="K61" s="79"/>
+      <c r="L61" s="79"/>
+      <c r="M61" s="79"/>
+      <c r="N61" s="79"/>
+      <c r="O61" s="79"/>
+      <c r="P61" s="79"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="42"/>
-      <c r="P64" s="42"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="42"/>
-      <c r="P68" s="42"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="42"/>
-      <c r="P69" s="42"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="42"/>
-      <c r="P70" s="42"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="42"/>
-      <c r="P71" s="42"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="42"/>
-      <c r="P72" s="42"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="42"/>
-      <c r="P73" s="42"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="42"/>
-      <c r="P74" s="42"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="41"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="42"/>
-      <c r="P75" s="42"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="41"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="42"/>
-      <c r="P76" s="42"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="42"/>
-      <c r="P77" s="42"/>
+      <c r="O77" s="41"/>
+      <c r="P77" s="41"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="42"/>
-      <c r="P78" s="42"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="41"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="42"/>
-      <c r="P79" s="42"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="41"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="42"/>
-      <c r="P80" s="42"/>
+      <c r="O80" s="41"/>
+      <c r="P80" s="41"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="42"/>
-      <c r="P81" s="42"/>
+      <c r="O81" s="41"/>
+      <c r="P81" s="41"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="42"/>
-      <c r="P82" s="42"/>
+      <c r="O82" s="41"/>
+      <c r="P82" s="41"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="42"/>
-      <c r="P83" s="42"/>
+      <c r="O83" s="41"/>
+      <c r="P83" s="41"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="42"/>
-      <c r="P84" s="42"/>
+      <c r="O84" s="41"/>
+      <c r="P84" s="41"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="42"/>
-      <c r="P85" s="42"/>
+      <c r="O85" s="41"/>
+      <c r="P85" s="41"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="42"/>
-      <c r="P86" s="42"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="42"/>
-      <c r="P87" s="42"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="42"/>
-      <c r="P88" s="42"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="41"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="42"/>
-      <c r="P89" s="42"/>
+      <c r="O89" s="41"/>
+      <c r="P89" s="41"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="42"/>
-      <c r="P90" s="42"/>
+      <c r="O90" s="41"/>
+      <c r="P90" s="41"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="42"/>
-      <c r="P91" s="42"/>
+      <c r="O91" s="41"/>
+      <c r="P91" s="41"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="42"/>
-      <c r="P92" s="42"/>
+      <c r="O92" s="41"/>
+      <c r="P92" s="41"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="42"/>
-      <c r="P93" s="42"/>
+      <c r="O93" s="41"/>
+      <c r="P93" s="41"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="42"/>
-      <c r="P94" s="42"/>
+      <c r="O94" s="41"/>
+      <c r="P94" s="41"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="42"/>
-      <c r="P95" s="42"/>
+      <c r="O95" s="41"/>
+      <c r="P95" s="41"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="42"/>
-      <c r="P96" s="42"/>
+      <c r="O96" s="41"/>
+      <c r="P96" s="41"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="42"/>
-      <c r="P97" s="42"/>
+      <c r="O97" s="41"/>
+      <c r="P97" s="41"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="42"/>
-      <c r="P98" s="42"/>
+      <c r="O98" s="41"/>
+      <c r="P98" s="41"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="42"/>
-      <c r="P99" s="42"/>
+      <c r="O99" s="41"/>
+      <c r="P99" s="41"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="42"/>
-      <c r="P100" s="42"/>
+      <c r="O100" s="41"/>
+      <c r="P100" s="41"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="42"/>
-      <c r="P101" s="42"/>
+      <c r="O101" s="41"/>
+      <c r="P101" s="41"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="42"/>
-      <c r="P102" s="42"/>
+      <c r="O102" s="41"/>
+      <c r="P102" s="41"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="42"/>
-      <c r="P103" s="42"/>
+      <c r="O103" s="41"/>
+      <c r="P103" s="41"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="42"/>
-      <c r="P104" s="42"/>
+      <c r="O104" s="41"/>
+      <c r="P104" s="41"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="42"/>
-      <c r="P105" s="42"/>
+      <c r="O105" s="41"/>
+      <c r="P105" s="41"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="42"/>
-      <c r="P106" s="42"/>
+      <c r="O106" s="41"/>
+      <c r="P106" s="41"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="42"/>
-      <c r="P107" s="42"/>
+      <c r="O107" s="41"/>
+      <c r="P107" s="41"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="42"/>
-      <c r="P108" s="42"/>
+      <c r="O108" s="41"/>
+      <c r="P108" s="41"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="42"/>
-      <c r="P109" s="42"/>
+      <c r="O109" s="41"/>
+      <c r="P109" s="41"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="42"/>
-      <c r="P110" s="42"/>
+      <c r="O110" s="41"/>
+      <c r="P110" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Technology/Software/Amazon.xlsx
+++ b/Technology/Software/Amazon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE25D549-67ED-6A4E-B9A6-D8E45138F58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5371EF0-9B68-1844-8405-CD925D797665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -838,13 +838,13 @@
     <t>Third-part retail</t>
   </si>
   <si>
-    <t>Advertising / Stores / Other</t>
-  </si>
-  <si>
     <t>Profit Margin</t>
   </si>
   <si>
     <t>Daily Change %</t>
+  </si>
+  <si>
+    <t>Advertising / Other</t>
   </si>
 </sst>
 </file>
@@ -857,7 +857,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1001,6 +1001,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1084,7 +1090,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1122,94 +1128,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1349,21 +1267,152 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="1"/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1371,7 +1420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1432,121 +1481,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1566,169 +1504,277 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="22" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="14" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="22" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="11" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="10" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="11" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="14" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="10" fontId="18" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1766,6 +1812,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1783,7 +1830,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5710000000000001E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1795,6 +1842,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1920,13 +1968,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>145.86000000000001</v>
+    <v>149.26</v>
     <v>81.430000000000007</v>
-    <v>1.1762999999999999</v>
-    <v>-1.48</v>
-    <v>-1.0417000000000001E-2</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.1659999999999999</v>
+    <v>0.94</v>
+    <v>6.4339999999999996E-3</v>
+    <v>0.03</v>
+    <v>2.0400000000000003E-4</v>
     <v>USD</v>
     <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content that it purchased for resale and products offered by third-party sellers. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, and Ring, and it develops and produces media content. It also offers subscription services such as Amazon Prime, a membership program. Its segments include North America, International and Amazon Web Services (AWS). The AWS segment consists of global sales of compute, storage, database, and other services for start-ups, enterprises, government agencies, and academic institutions. It provides advertising services to sellers, vendors, publishers, authors, and others, through programs, such as sponsored advertisements, display, and video advertising. Customers access its offerings through websites, mobile applications, Alexa, devices, streaming, and physically visiting its stores.</v>
     <v>1500000</v>
@@ -1934,25 +1982,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>410 Terry Ave N, SEATTLE, WA, 98109 US</v>
-    <v>142.65</v>
+    <v>147.245</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45239.925481284372</v>
+    <v>45261.948569710155</v>
     <v>0</v>
-    <v>139.84</v>
-    <v>1452964618000</v>
+    <v>145.55000000000001</v>
+    <v>1519413000000</v>
     <v>AMAZON.COM, INC.</v>
     <v>AMAZON.COM, INC.</v>
-    <v>142.02000000000001</v>
-    <v>74.176199999999994</v>
-    <v>142.08000000000001</v>
-    <v>140.6</v>
-    <v>140.6</v>
+    <v>146</v>
+    <v>76.2697</v>
+    <v>146.09</v>
+    <v>147.03</v>
+    <v>147.06</v>
     <v>10334030000</v>
     <v>AMZN</v>
     <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>36134647</v>
-    <v>55271186</v>
+    <v>39951833</v>
+    <v>55040222</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -2117,9 +2165,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -14069,1866 +14117,1986 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0E32AF-7558-4446-9244-76604BCB004A}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="125" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="e" vm="1">
+    <row r="1" spans="1:18" s="134" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="133" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-    </row>
-    <row r="2" spans="1:16" s="125" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" cm="1">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+    </row>
+    <row r="2" spans="1:18" s="134" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="133"/>
+      <c r="B2" s="133"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
+      <c r="J2" s="133"/>
+      <c r="K2" s="133"/>
+      <c r="L2" s="133"/>
+      <c r="M2" s="133"/>
+      <c r="N2" s="133"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="133"/>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>1452964618000</v>
-      </c>
-      <c r="B3" s="35" t="s">
+        <v>1519413000000</v>
+      </c>
+      <c r="B3" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="68">
         <f>Financials!O8*0.01</f>
         <v>0.14199999999999999</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="68">
         <f>SUM(C11:E11)/3</f>
         <v>0.22906104813234682</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="69" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="70">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>1.0578895622893769E-2</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="69" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="71">
         <f>J20*(1+I7)/(I6-I7)</f>
-        <v>1997793531081.1467</v>
-      </c>
-      <c r="J3" s="35" t="s">
+        <v>1986443283587.0391</v>
+      </c>
+      <c r="J3" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="73">
         <f>(Financials!O172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="74" t="s">
         <v>212</v>
       </c>
-      <c r="M3" s="41"/>
-      <c r="N3" s="128" t="s">
+      <c r="M3" s="35"/>
+      <c r="N3" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="129"/>
-      <c r="P3" s="41"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42">
+      <c r="O3" s="100"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="75">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-74944000000</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="77">
         <f>Financials!O17*0.01</f>
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="77">
         <f>AVERAGE(C18:E18)</f>
         <v>0.10776906724378484</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="79">
         <f>A5*(1+(5*G3))</f>
         <v>10880643123.669266</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="80">
         <f>NPV(I6,F20,G20,H20,I20,(J20+I3))</f>
-        <v>1639753909770.0969</v>
-      </c>
-      <c r="J4" s="45" t="s">
+        <v>1629800250297.082</v>
+      </c>
+      <c r="J4" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="132" cm="1">
+      <c r="K4" s="81" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.0417000000000001E-2</v>
-      </c>
-      <c r="L4" s="134" t="s">
-        <v>256</v>
-      </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="130" t="s">
+        <v>6.4339999999999996E-3</v>
+      </c>
+      <c r="L4" s="82" t="s">
+        <v>255</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="101" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="131"/>
-      <c r="P4" s="41"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" cm="1">
+      <c r="O4" s="102"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="75" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>10334030000</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="77">
         <f>Financials!O34*0.01</f>
         <v>2.4300000000000002E-2</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="77">
         <f>AVERAGE(C21:E21)</f>
         <v>-0.33456495356799903</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="79">
         <f>Financials!O56</f>
         <v>63970000000</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="80">
         <f>I4+G5-G6</f>
-        <v>1564809909770.0969</v>
-      </c>
-      <c r="J5" s="45" t="s">
+        <v>1554856250297.082</v>
+      </c>
+      <c r="J5" s="78" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="133" cm="1">
+      <c r="K5" s="84" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>140.6</v>
-      </c>
-      <c r="L5" s="135" t="s">
+        <v>147.03</v>
+      </c>
+      <c r="L5" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="51" t="s">
+      <c r="M5" s="35"/>
+      <c r="N5" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="104">
         <f>Financials!O21</f>
         <v>2974000000</v>
       </c>
-      <c r="P5" s="41"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53">
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="86">
         <f>O20/F10</f>
-        <v>2.5490607333333335</v>
-      </c>
-      <c r="B6" s="43" t="s">
+        <v>2.665636842105263</v>
+      </c>
+      <c r="B6" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="77">
         <f>Financials!O190</f>
         <v>1.1251295573240949E-2</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="83" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="77">
         <f>Financials!O33/Financials!O126</f>
         <v>7.753170187779504E-2</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="79">
         <f>Financials!O96+Financials!O105</f>
         <v>138914000000</v>
       </c>
-      <c r="H6" s="47" t="s">
+      <c r="H6" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="81">
         <f>N25</f>
-        <v>8.4618272933111305E-2</v>
-      </c>
-      <c r="J6" s="47" t="s">
+        <v>8.4958923058163022E-2</v>
+      </c>
+      <c r="J6" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="87">
         <f>I5/G4</f>
-        <v>143.81593918525635</v>
-      </c>
-      <c r="L6" s="57" t="s">
+        <v>142.90113485247181</v>
+      </c>
+      <c r="L6" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="58" t="s">
+      <c r="M6" s="35"/>
+      <c r="N6" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="59">
+      <c r="O6" s="104">
         <f>Financials!O96</f>
         <v>0</v>
       </c>
-      <c r="P6" s="41"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60">
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89">
         <f>O20/F17</f>
-        <v>63.771270101825841</v>
-      </c>
-      <c r="B7" s="61" t="s">
+        <v>66.687719452247194</v>
+      </c>
+      <c r="B7" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="91">
         <f>F20/A3</f>
-        <v>3.5651246670619204E-2</v>
-      </c>
-      <c r="D7" s="63" t="s">
+        <v>3.4092113204244004E-2</v>
+      </c>
+      <c r="D7" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="92">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>4.3209946799516126E-2</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="90" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="93">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>0.82391667951744341</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="95">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="97">
         <f>K6/K5-1</f>
-        <v>2.2872967178210191E-2</v>
-      </c>
-      <c r="L7" s="70" t="s">
+        <v>-2.8081787033450212E-2</v>
+      </c>
+      <c r="L7" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="58" t="s">
+      <c r="M7" s="35"/>
+      <c r="N7" s="103" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="59">
+      <c r="O7" s="104">
         <f>Financials!O105</f>
         <v>138914000000</v>
       </c>
-      <c r="P7" s="41"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="72" t="s">
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="73">
+      <c r="O8" s="106">
         <f>O5/(O6+O7)</f>
         <v>2.140892926558878E-2</v>
       </c>
-      <c r="P8" s="41"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75">
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38">
         <v>2019</v>
       </c>
-      <c r="C9" s="75">
+      <c r="C9" s="38">
         <v>2020</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="38">
         <v>2021</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="38">
         <v>2022</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="39">
         <v>2023</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="40">
         <v>2024</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="40">
         <v>2025</v>
       </c>
-      <c r="I9" s="77">
+      <c r="I9" s="40">
         <v>2026</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="40">
         <v>2027</v>
       </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="58" t="s">
+      <c r="K9" s="41"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="103" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="104">
         <f>Financials!O25</f>
         <v>594000000</v>
       </c>
-      <c r="P9" s="41"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="97" t="s">
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="102">
+      <c r="B10" s="52">
         <v>280522000000</v>
       </c>
-      <c r="C10" s="102">
+      <c r="C10" s="52">
         <v>386064000000</v>
       </c>
-      <c r="D10" s="102">
+      <c r="D10" s="52">
         <v>469822000000</v>
       </c>
-      <c r="E10" s="102">
+      <c r="E10" s="52">
         <v>513983000000</v>
       </c>
-      <c r="F10" s="103">
+      <c r="F10" s="53">
         <v>570000000000</v>
       </c>
-      <c r="G10" s="102">
+      <c r="G10" s="52">
         <v>636000000000</v>
       </c>
-      <c r="H10" s="102">
+      <c r="H10" s="52">
         <v>712000000000</v>
       </c>
-      <c r="I10" s="102">
+      <c r="I10" s="52">
         <v>801000000000</v>
       </c>
-      <c r="J10" s="102">
+      <c r="J10" s="52">
         <v>893500000000</v>
       </c>
-      <c r="K10" s="105" t="s">
+      <c r="K10" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="L10" s="115"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="58" t="s">
+      <c r="L10" s="61"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="103" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="59">
+      <c r="O10" s="104">
         <f>Financials!O24</f>
         <v>13664000000</v>
       </c>
-      <c r="P10" s="41"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82">
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.37623430604373276</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="44">
         <f t="shared" si="0"/>
         <v>0.21695366571345676</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="44">
         <f t="shared" si="0"/>
         <v>9.399517263985091E-2</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="45">
         <f t="shared" si="0"/>
         <v>0.1089860948708421</v>
       </c>
-      <c r="G11" s="82">
+      <c r="G11" s="44">
         <f t="shared" si="0"/>
         <v>0.11578947368421044</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="44">
         <f t="shared" si="0"/>
         <v>0.11949685534591192</v>
       </c>
-      <c r="I11" s="82">
+      <c r="I11" s="44">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="J11" s="82">
+      <c r="J11" s="44">
         <f t="shared" si="0"/>
         <v>0.11548064918851431</v>
       </c>
-      <c r="K11" s="114">
+      <c r="K11" s="60">
         <f>SUM(F11:J11)/5</f>
         <v>0.11695061461789576</v>
       </c>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="58" t="s">
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="84">
+      <c r="O11" s="107">
         <f>O9/O10</f>
         <v>4.3471896955503513E-2</v>
       </c>
-      <c r="P11" s="41"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="109" t="s">
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="124" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="106">
+      <c r="B12" s="127">
         <v>141200000000</v>
       </c>
-      <c r="C12" s="106">
+      <c r="C12" s="127">
         <v>197200000000</v>
       </c>
-      <c r="D12" s="106">
+      <c r="D12" s="127">
         <v>222000000000</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="128">
         <v>220000000000</v>
       </c>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="85" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="86">
+      <c r="O12" s="107">
         <f>O8*(1-O11)</f>
         <v>2.0478242498627442E-2</v>
       </c>
-      <c r="P12" s="41"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="80" t="s">
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="125" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="94">
+      <c r="B13" s="129">
         <v>53700000000</v>
       </c>
-      <c r="C13" s="94">
+      <c r="C13" s="129">
         <v>80400000000</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="129">
         <v>103300000000</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="130">
         <v>117700000000</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="130" t="s">
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="131"/>
-      <c r="P13" s="41"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="80" t="s">
+      <c r="O13" s="102"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="125" t="s">
         <v>250</v>
       </c>
-      <c r="B14" s="94">
+      <c r="B14" s="129">
         <v>35000000000</v>
       </c>
-      <c r="C14" s="94">
+      <c r="C14" s="129">
         <v>45300000000</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="129">
         <v>62200000000</v>
       </c>
-      <c r="E14" s="93">
+      <c r="E14" s="130">
         <v>80000000000</v>
       </c>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="58" t="s">
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="84">
+      <c r="O14" s="107">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5710000000000001E-2</v>
-      </c>
-      <c r="P14" s="41"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="80" t="s">
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="94">
+      <c r="B15" s="129">
         <v>19200000000</v>
       </c>
-      <c r="C15" s="94">
+      <c r="C15" s="129">
         <v>25200000000</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="129">
         <v>31700000000</v>
       </c>
-      <c r="E15" s="93">
+      <c r="E15" s="130">
         <v>35200000000</v>
       </c>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="58" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="87" cm="1">
+      <c r="O15" s="108" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1762999999999999</v>
-      </c>
-      <c r="P15" s="41"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="110" t="s">
-        <v>254</v>
-      </c>
-      <c r="B16" s="118">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="126" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="131">
         <f>37700000000+4200000000+18900000000</f>
         <v>60800000000</v>
       </c>
-      <c r="C16" s="118">
+      <c r="C16" s="131">
         <f>15500000000+5900000000+16200000000</f>
         <v>37600000000</v>
       </c>
-      <c r="D16" s="118">
+      <c r="D16" s="131">
         <f>31100000000+3400000000+17000000000</f>
         <v>51500000000</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="132">
         <f>37700000000+4200000000+18900000000</f>
         <v>60800000000</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="58" t="s">
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="103" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="84">
+      <c r="O16" s="107">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="P16" s="41"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="97" t="s">
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="118">
+      <c r="B17" s="64">
         <v>11588000000</v>
       </c>
-      <c r="C17" s="118">
+      <c r="C17" s="64">
         <v>21331000000</v>
       </c>
-      <c r="D17" s="118">
+      <c r="D17" s="64">
         <v>33364000000</v>
       </c>
-      <c r="E17" s="118">
+      <c r="E17" s="64">
         <v>-2722000000</v>
       </c>
-      <c r="F17" s="103">
+      <c r="F17" s="53">
         <v>22784000000</v>
       </c>
-      <c r="G17" s="102">
+      <c r="G17" s="52">
         <v>32581000000</v>
       </c>
-      <c r="H17" s="102">
+      <c r="H17" s="52">
         <v>45725000000</v>
       </c>
-      <c r="I17" s="102">
+      <c r="I17" s="52">
         <v>62114000000</v>
       </c>
-      <c r="J17" s="102">
+      <c r="J17" s="119">
         <v>78085000000</v>
       </c>
-      <c r="K17" s="104" t="s">
+      <c r="K17" s="118" t="s">
         <v>238</v>
       </c>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="88" t="s">
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="109" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="89">
+      <c r="O17" s="110">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.0750526999999998E-2</v>
-      </c>
-      <c r="P17" s="41"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="81"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82">
+        <v>9.085414E-2</v>
+      </c>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44">
         <f t="shared" ref="C18" si="1">(C17/B17)-1</f>
         <v>0.84078356920952713</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="44">
         <f t="shared" ref="D18" si="2">(D17/C17)-1</f>
         <v>0.56410857437532225</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="44">
         <f t="shared" ref="E18" si="3">(E17/D17)-1</f>
         <v>-1.0815849418534949</v>
       </c>
-      <c r="F18" s="83">
+      <c r="F18" s="45">
         <f t="shared" ref="F18" si="4">(F17/E17)-1</f>
         <v>-9.3703159441587065</v>
       </c>
-      <c r="G18" s="82">
+      <c r="G18" s="44">
         <f t="shared" ref="G18" si="5">(G17/F17)-1</f>
         <v>0.4299947331460674</v>
       </c>
-      <c r="H18" s="82">
+      <c r="H18" s="44">
         <f t="shared" ref="H18" si="6">(H17/G17)-1</f>
         <v>0.40342530922930542</v>
       </c>
-      <c r="I18" s="82">
+      <c r="I18" s="44">
         <f t="shared" ref="I18" si="7">(I17/H17)-1</f>
         <v>0.35842536905412792</v>
       </c>
-      <c r="J18" s="82">
+      <c r="J18" s="44">
         <f t="shared" ref="J18" si="8">(J17/I17)-1</f>
         <v>0.25712399781047757</v>
       </c>
-      <c r="K18" s="114">
+      <c r="K18" s="60">
         <f>SUM(F18:J18)/5</f>
         <v>-1.5842693069837455</v>
       </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="130" t="s">
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="131"/>
-      <c r="P18" s="41"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="119" t="s">
-        <v>255</v>
-      </c>
-      <c r="B19" s="116">
+      <c r="O18" s="102"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="62">
         <f>B17/B10</f>
         <v>4.1308703060722513E-2</v>
       </c>
-      <c r="C19" s="116">
+      <c r="C19" s="62">
         <f t="shared" ref="C19:J19" si="9">C17/C10</f>
         <v>5.5252496995316841E-2</v>
       </c>
-      <c r="D19" s="116">
+      <c r="D19" s="62">
         <f t="shared" si="9"/>
         <v>7.1014128755145567E-2</v>
       </c>
-      <c r="E19" s="116">
+      <c r="E19" s="62">
         <f t="shared" si="9"/>
         <v>-5.2958950004183018E-3</v>
       </c>
-      <c r="F19" s="116">
+      <c r="F19" s="62">
         <f t="shared" si="9"/>
         <v>3.9971929824561402E-2</v>
       </c>
-      <c r="G19" s="116">
+      <c r="G19" s="62">
         <f t="shared" si="9"/>
         <v>5.1227987421383646E-2</v>
       </c>
-      <c r="H19" s="116">
+      <c r="H19" s="62">
         <f t="shared" si="9"/>
         <v>6.4220505617977527E-2</v>
       </c>
-      <c r="I19" s="116">
+      <c r="I19" s="62">
         <f t="shared" si="9"/>
         <v>7.7545568039950066E-2</v>
       </c>
-      <c r="J19" s="116">
+      <c r="J19" s="62">
         <f t="shared" si="9"/>
         <v>8.7392277560156689E-2</v>
       </c>
-      <c r="K19" s="117"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="58" t="s">
+      <c r="K19" s="63"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="90">
+      <c r="O19" s="111">
         <f>O6+O7</f>
         <v>138914000000</v>
       </c>
-      <c r="P19" s="41"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="97" t="s">
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="102">
+      <c r="B20" s="52">
         <v>22981219805</v>
       </c>
-      <c r="C20" s="102">
+      <c r="C20" s="52">
         <v>27375973075</v>
       </c>
-      <c r="D20" s="102">
+      <c r="D20" s="52">
         <v>-13144174098</v>
       </c>
-      <c r="E20" s="102">
+      <c r="E20" s="52">
         <v>-16893000000</v>
       </c>
-      <c r="F20" s="103">
+      <c r="F20" s="53">
         <v>51800000000</v>
       </c>
-      <c r="G20" s="102">
+      <c r="G20" s="52">
         <v>61300000000</v>
       </c>
-      <c r="H20" s="102">
+      <c r="H20" s="52">
         <v>75600000000</v>
       </c>
-      <c r="I20" s="102">
+      <c r="I20" s="52">
         <v>100000000000</v>
       </c>
-      <c r="J20" s="102">
+      <c r="J20" s="52">
         <v>116200000000</v>
       </c>
-      <c r="K20" s="104" t="s">
+      <c r="K20" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="58" t="s">
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="90" cm="1">
+      <c r="O20" s="111" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>1452964618000</v>
-      </c>
-      <c r="P20" s="41"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82">
+        <v>1519413000000</v>
+      </c>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44">
         <f t="shared" ref="C21:J21" si="10">(C20/B20)-1</f>
         <v>0.19123237614409994</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="44">
         <f t="shared" si="10"/>
         <v>-1.4801354115154133</v>
       </c>
-      <c r="E21" s="82">
+      <c r="E21" s="44">
         <f t="shared" si="10"/>
         <v>0.28520817466731629</v>
       </c>
-      <c r="F21" s="83">
+      <c r="F21" s="45">
         <f t="shared" si="10"/>
         <v>-4.0663588468596465</v>
       </c>
-      <c r="G21" s="82">
+      <c r="G21" s="44">
         <f t="shared" si="10"/>
         <v>0.18339768339768336</v>
       </c>
-      <c r="H21" s="82">
+      <c r="H21" s="44">
         <f t="shared" si="10"/>
         <v>0.23327895595432291</v>
       </c>
-      <c r="I21" s="82">
+      <c r="I21" s="44">
         <f t="shared" si="10"/>
         <v>0.32275132275132279</v>
       </c>
-      <c r="J21" s="82">
+      <c r="J21" s="44">
         <f t="shared" si="10"/>
         <v>0.16199999999999992</v>
       </c>
-      <c r="K21" s="114">
+      <c r="K21" s="60">
         <f>SUM(F21:J21)/5</f>
         <v>-0.63298617695126347</v>
       </c>
-      <c r="M21" s="79"/>
-      <c r="N21" s="58" t="s">
+      <c r="M21" s="42"/>
+      <c r="N21" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="90">
+      <c r="O21" s="111">
         <f>O19+O20</f>
-        <v>1591878618000</v>
-      </c>
-      <c r="P21" s="41"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="119" t="s">
+        <v>1658327000000</v>
+      </c>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="B22" s="116">
+      <c r="B22" s="62">
         <f>B20/B10</f>
         <v>8.1923057032959976E-2</v>
       </c>
-      <c r="C22" s="116">
+      <c r="C22" s="62">
         <f t="shared" ref="C22:J22" si="11">C20/C10</f>
         <v>7.091045286532803E-2</v>
       </c>
-      <c r="D22" s="116">
+      <c r="D22" s="62">
         <f t="shared" si="11"/>
         <v>-2.7976923383749592E-2</v>
       </c>
-      <c r="E22" s="116">
+      <c r="E22" s="62">
         <f t="shared" si="11"/>
         <v>-3.2866845790619534E-2</v>
       </c>
-      <c r="F22" s="116">
+      <c r="F22" s="62">
         <f t="shared" si="11"/>
         <v>9.087719298245614E-2</v>
       </c>
-      <c r="G22" s="116">
+      <c r="G22" s="62">
         <f t="shared" si="11"/>
         <v>9.6383647798742145E-2</v>
       </c>
-      <c r="H22" s="116">
+      <c r="H22" s="62">
         <f t="shared" si="11"/>
         <v>0.10617977528089888</v>
       </c>
-      <c r="I22" s="116">
+      <c r="I22" s="62">
         <f t="shared" si="11"/>
         <v>0.12484394506866417</v>
       </c>
-      <c r="J22" s="116">
+      <c r="J22" s="62">
         <f t="shared" si="11"/>
         <v>0.13005036373810855</v>
       </c>
-      <c r="K22" s="117"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="72" t="s">
+      <c r="K22" s="63"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="91">
+      <c r="O22" s="112">
         <f>(O19/O21)</f>
-        <v>8.7264191144503456E-2</v>
-      </c>
-      <c r="P22" s="41"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="97" t="s">
+        <v>8.3767556097199158E-2</v>
+      </c>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="B23" s="98">
+      <c r="B23" s="48">
         <v>8.7061429768889947E-2</v>
       </c>
-      <c r="C23" s="98">
+      <c r="C23" s="48">
         <v>9.6596885141709735E-2</v>
       </c>
-      <c r="D23" s="98">
+      <c r="D23" s="48">
         <v>7.3276979264844486E-2</v>
       </c>
-      <c r="E23" s="99">
+      <c r="E23" s="49">
         <v>3.2100810382966236E-2</v>
       </c>
-      <c r="F23" s="100"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="88" t="s">
+      <c r="F23" s="50"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="109" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="92">
+      <c r="O23" s="113">
         <f>O20/O21</f>
-        <v>0.91273580885549654</v>
-      </c>
-      <c r="P23" s="41"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="79"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="120" t="s">
+        <v>0.91623244390280079</v>
+      </c>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="114" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="121"/>
-      <c r="P24" s="41"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="127" t="str" cm="1">
+      <c r="O24" s="115"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="122" t="str" cm="1">
         <f t="array" ref="A25">_FV(A1,"Industry")</f>
         <v>Diversified Retail</v>
       </c>
-      <c r="B25" s="127"/>
-      <c r="C25" s="126" cm="1">
-        <f t="array" ref="C25">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="123" cm="1">
+        <f t="array" ref="D25">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1996</v>
       </c>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="122">
+      <c r="E25" s="123"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="116">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.4618272933111305E-2</v>
-      </c>
-      <c r="O25" s="123"/>
-      <c r="P25" s="41"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="127" t="str" cm="1">
+        <v>8.4958923058163022E-2</v>
+      </c>
+      <c r="O25" s="117"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="120" t="str" cm="1">
         <f t="array" ref="A26">_FV(A1,"Description")</f>
         <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content that it purchased for resale and products offered by third-party sellers. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, and Ring, and it develops and produces media content. It also offers subscription services such as Amazon Prime, a membership program. Its segments include North America, International and Amazon Web Services (AWS). The AWS segment consists of global sales of compute, storage, database, and other services for start-ups, enterprises, government agencies, and academic institutions. It provides advertising services to sellers, vendors, publishers, authors, and others, through programs, such as sponsored advertisements, display, and video advertising. Customers access its offerings through websites, mobile applications, Alexa, devices, streaming, and physically visiting its stores.</v>
       </c>
-      <c r="B26" s="127"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="127"/>
-      <c r="B27" s="127"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="127"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="127"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-    </row>
-    <row r="31" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="127"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-    </row>
-    <row r="32" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="127"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-    </row>
-    <row r="33" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="127"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
-    </row>
-    <row r="34" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="127"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79"/>
-    </row>
-    <row r="35" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="127"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="127"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
-    </row>
-    <row r="36" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="127"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-    </row>
-    <row r="37" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="79"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-    </row>
-    <row r="38" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-    </row>
-    <row r="39" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="79"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
-    </row>
-    <row r="40" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="79"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="79"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="79"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="79"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="79"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="79"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="79"/>
-      <c r="P46" s="79"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="79"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="79"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="79"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="79"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="79"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="79"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="79"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="79"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="79"/>
-      <c r="B55" s="79"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="79"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="79"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="79"/>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="79"/>
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="79"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="79"/>
-      <c r="P60" s="79"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="79"/>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="79"/>
-      <c r="O61" s="79"/>
-      <c r="P61" s="79"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="120"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="120"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="120"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="120"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="120"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+    </row>
+    <row r="31" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="120"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+    </row>
+    <row r="32" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="120"/>
+      <c r="B32" s="120"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+    </row>
+    <row r="33" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="120"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+    </row>
+    <row r="34" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="121"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+    </row>
+    <row r="35" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="121"/>
+      <c r="B35" s="121"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+    </row>
+    <row r="36" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="121"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+    </row>
+    <row r="37" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+    </row>
+    <row r="38" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+    </row>
+    <row r="39" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+    </row>
+    <row r="40" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="41"/>
-      <c r="P73" s="41"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="41"/>
-      <c r="P74" s="41"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="41"/>
-      <c r="P75" s="41"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="41"/>
-      <c r="P76" s="41"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="41"/>
-      <c r="P79" s="41"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="41"/>
-      <c r="P80" s="41"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="41"/>
-      <c r="P81" s="41"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="41"/>
-      <c r="P82" s="41"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="41"/>
-      <c r="P83" s="41"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="41"/>
-      <c r="P85" s="41"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="41"/>
-      <c r="P86" s="41"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="41"/>
-      <c r="P87" s="41"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="41"/>
-      <c r="P88" s="41"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="41"/>
-      <c r="P89" s="41"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="41"/>
-      <c r="P90" s="41"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="41"/>
-      <c r="P91" s="41"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="41"/>
-      <c r="P92" s="41"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="41"/>
-      <c r="P94" s="41"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="41"/>
-      <c r="P95" s="41"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="41"/>
-      <c r="P96" s="41"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="41"/>
-      <c r="P97" s="41"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="41"/>
-      <c r="P98" s="41"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="41"/>
-      <c r="P99" s="41"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="41"/>
-      <c r="P100" s="41"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="41"/>
-      <c r="P104" s="41"/>
+      <c r="O104" s="35"/>
+      <c r="P104" s="35"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
+      <c r="O105" s="35"/>
+      <c r="P105" s="35"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="41"/>
-      <c r="P106" s="41"/>
+      <c r="O106" s="35"/>
+      <c r="P106" s="35"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
+      <c r="O107" s="35"/>
+      <c r="P107" s="35"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
+      <c r="O108" s="35"/>
+      <c r="P108" s="35"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
+      <c r="O109" s="35"/>
+      <c r="P109" s="35"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="41"/>
-      <c r="P110" s="41"/>
+      <c r="O110" s="35"/>
+      <c r="P110" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="A26:E36"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:AMZN/explorer/revenue_proj" xr:uid="{740D7953-7FC5-B149-8D64-DAB4C3902529}"/>

--- a/Technology/Software/Amazon.xlsx
+++ b/Technology/Software/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5371EF0-9B68-1844-8405-CD925D797665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A05A89E-B104-FE48-AAC6-E2CE332AA96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1668,18 +1668,6 @@
     <xf numFmtId="9" fontId="15" fillId="10" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1713,18 +1701,6 @@
     <xf numFmtId="10" fontId="18" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="19" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1732,16 +1708,7 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
@@ -1770,10 +1737,43 @@
     <xf numFmtId="164" fontId="12" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
@@ -1811,6 +1811,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1830,7 +1832,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1843,6 +1845,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1970,11 +1974,11 @@
     <v>Powered by Refinitiv</v>
     <v>149.26</v>
     <v>81.430000000000007</v>
-    <v>1.1659999999999999</v>
-    <v>0.94</v>
-    <v>6.4339999999999996E-3</v>
-    <v>0.03</v>
-    <v>2.0400000000000003E-4</v>
+    <v>1.1658999999999999</v>
+    <v>0.54</v>
+    <v>3.676E-3</v>
+    <v>4.4999999999999998E-2</v>
+    <v>3.0529999999999999E-4</v>
     <v>USD</v>
     <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content that it purchased for resale and products offered by third-party sellers. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, and Ring, and it develops and produces media content. It also offers subscription services such as Amazon Prime, a membership program. Its segments include North America, International and Amazon Web Services (AWS). The AWS segment consists of global sales of compute, storage, database, and other services for start-ups, enterprises, government agencies, and academic institutions. It provides advertising services to sellers, vendors, publishers, authors, and others, through programs, such as sponsored advertisements, display, and video advertising. Customers access its offerings through websites, mobile applications, Alexa, devices, streaming, and physically visiting its stores.</v>
     <v>1500000</v>
@@ -1982,25 +1986,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>410 Terry Ave N, SEATTLE, WA, 98109 US</v>
-    <v>147.245</v>
+    <v>147.84</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45261.948569710155</v>
+    <v>45269.041665034376</v>
     <v>0</v>
-    <v>145.55000000000001</v>
-    <v>1519413000000</v>
+    <v>145.4</v>
+    <v>1523442702599</v>
     <v>AMAZON.COM, INC.</v>
     <v>AMAZON.COM, INC.</v>
-    <v>146</v>
-    <v>76.2697</v>
-    <v>146.09</v>
-    <v>147.03</v>
-    <v>147.06</v>
+    <v>145.47999999999999</v>
+    <v>76.682100000000005</v>
+    <v>146.88</v>
+    <v>147.41999999999999</v>
+    <v>147.465</v>
     <v>10334030000</v>
     <v>AMZN</v>
     <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>39951833</v>
-    <v>55040222</v>
+    <v>41905965</v>
+    <v>47670906</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -14128,48 +14132,48 @@
     <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="134" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="e" vm="1">
+    <row r="1" spans="1:18" s="128" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="127" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-    </row>
-    <row r="2" spans="1:18" s="134" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+    </row>
+    <row r="2" spans="1:18" s="128" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
     </row>
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="66" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>1519413000000</v>
+        <v>1523442702599</v>
       </c>
       <c r="B3" s="67" t="s">
         <v>201</v>
@@ -14197,7 +14201,7 @@
       </c>
       <c r="I3" s="71">
         <f>J20*(1+I7)/(I6-I7)</f>
-        <v>1986443283587.0391</v>
+        <v>1978571044522.0645</v>
       </c>
       <c r="J3" s="72" t="s">
         <v>205</v>
@@ -14210,10 +14214,10 @@
         <v>212</v>
       </c>
       <c r="M3" s="35"/>
-      <c r="N3" s="99" t="s">
+      <c r="N3" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="100"/>
+      <c r="O3" s="130"/>
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
       <c r="R3" s="35"/>
@@ -14249,23 +14253,23 @@
       </c>
       <c r="I4" s="80">
         <f>NPV(I6,F20,G20,H20,I20,(J20+I3))</f>
-        <v>1629800250297.082</v>
+        <v>1622897125967.8621</v>
       </c>
       <c r="J4" s="78" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="81" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>6.4339999999999996E-3</v>
+        <v>3.676E-3</v>
       </c>
       <c r="L4" s="82" t="s">
         <v>255</v>
       </c>
       <c r="M4" s="35"/>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="102"/>
+      <c r="O4" s="132"/>
       <c r="P4" s="35"/>
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
@@ -14301,23 +14305,23 @@
       </c>
       <c r="I5" s="80">
         <f>I4+G5-G6</f>
-        <v>1554856250297.082</v>
+        <v>1547953125967.8621</v>
       </c>
       <c r="J5" s="78" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="84" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>147.03</v>
+        <v>147.41999999999999</v>
       </c>
       <c r="L5" s="85" t="s">
         <v>219</v>
       </c>
       <c r="M5" s="35"/>
-      <c r="N5" s="103" t="s">
+      <c r="N5" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="104">
+      <c r="O5" s="100">
         <f>Financials!O21</f>
         <v>2974000000</v>
       </c>
@@ -14328,7 +14332,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="86">
         <f>O20/F10</f>
-        <v>2.665636842105263</v>
+        <v>2.6727064957877191</v>
       </c>
       <c r="B6" s="76" t="s">
         <v>221</v>
@@ -14356,23 +14360,23 @@
       </c>
       <c r="I6" s="81">
         <f>N25</f>
-        <v>8.4958923058163022E-2</v>
+        <v>8.5197484608782653E-2</v>
       </c>
       <c r="J6" s="78" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="87">
         <f>I5/G4</f>
-        <v>142.90113485247181</v>
+        <v>142.26669401558755</v>
       </c>
       <c r="L6" s="88" t="s">
         <v>225</v>
       </c>
       <c r="M6" s="35"/>
-      <c r="N6" s="103" t="s">
+      <c r="N6" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="104">
+      <c r="O6" s="100">
         <f>Financials!O96</f>
         <v>0</v>
       </c>
@@ -14383,14 +14387,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="89">
         <f>O20/F17</f>
-        <v>66.687719452247194</v>
+        <v>66.864584910419595</v>
       </c>
       <c r="B7" s="90" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="91">
         <f>F20/A3</f>
-        <v>3.4092113204244004E-2</v>
+        <v>3.4001935164104935E-2</v>
       </c>
       <c r="D7" s="90" t="s">
         <v>228</v>
@@ -14417,16 +14421,16 @@
       </c>
       <c r="K7" s="97">
         <f>K6/K5-1</f>
-        <v>-2.8081787033450212E-2</v>
+        <v>-3.4956627217558323E-2</v>
       </c>
       <c r="L7" s="98" t="s">
         <v>231</v>
       </c>
       <c r="M7" s="35"/>
-      <c r="N7" s="103" t="s">
+      <c r="N7" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="104">
+      <c r="O7" s="100">
         <f>Financials!O105</f>
         <v>138914000000</v>
       </c>
@@ -14448,10 +14452,10 @@
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
-      <c r="N8" s="105" t="s">
+      <c r="N8" s="101" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="106">
+      <c r="O8" s="102">
         <f>O5/(O6+O7)</f>
         <v>2.140892926558878E-2</v>
       </c>
@@ -14491,10 +14495,10 @@
       <c r="K9" s="41"/>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
-      <c r="N9" s="103" t="s">
+      <c r="N9" s="99" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="104">
+      <c r="O9" s="100">
         <f>Financials!O25</f>
         <v>594000000</v>
       </c>
@@ -14538,10 +14542,10 @@
       </c>
       <c r="L10" s="61"/>
       <c r="M10" s="34"/>
-      <c r="N10" s="103" t="s">
+      <c r="N10" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="104">
+      <c r="O10" s="100">
         <f>Financials!O24</f>
         <v>13664000000</v>
       </c>
@@ -14590,10 +14594,10 @@
       </c>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
-      <c r="N11" s="103" t="s">
+      <c r="N11" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="107">
+      <c r="O11" s="103">
         <f>O9/O10</f>
         <v>4.3471896955503513E-2</v>
       </c>
@@ -14602,19 +14606,19 @@
       <c r="R11" s="35"/>
     </row>
     <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="113" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="127">
+      <c r="B12" s="116">
         <v>141200000000</v>
       </c>
-      <c r="C12" s="127">
+      <c r="C12" s="116">
         <v>197200000000</v>
       </c>
-      <c r="D12" s="127">
+      <c r="D12" s="116">
         <v>222000000000</v>
       </c>
-      <c r="E12" s="128">
+      <c r="E12" s="117">
         <v>220000000000</v>
       </c>
       <c r="F12" s="56"/>
@@ -14625,10 +14629,10 @@
       <c r="K12" s="57"/>
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
-      <c r="N12" s="103" t="s">
+      <c r="N12" s="99" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="107">
+      <c r="O12" s="103">
         <f>O8*(1-O11)</f>
         <v>2.0478242498627442E-2</v>
       </c>
@@ -14637,19 +14641,19 @@
       <c r="R12" s="35"/>
     </row>
     <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="114" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="129">
+      <c r="B13" s="118">
         <v>53700000000</v>
       </c>
-      <c r="C13" s="129">
+      <c r="C13" s="118">
         <v>80400000000</v>
       </c>
-      <c r="D13" s="129">
+      <c r="D13" s="118">
         <v>103300000000</v>
       </c>
-      <c r="E13" s="130">
+      <c r="E13" s="119">
         <v>117700000000</v>
       </c>
       <c r="F13" s="43"/>
@@ -14660,28 +14664,28 @@
       <c r="K13" s="58"/>
       <c r="L13" s="42"/>
       <c r="M13" s="42"/>
-      <c r="N13" s="101" t="s">
+      <c r="N13" s="131" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="102"/>
+      <c r="O13" s="132"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
     </row>
     <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="114" t="s">
         <v>250</v>
       </c>
-      <c r="B14" s="129">
+      <c r="B14" s="118">
         <v>35000000000</v>
       </c>
-      <c r="C14" s="129">
+      <c r="C14" s="118">
         <v>45300000000</v>
       </c>
-      <c r="D14" s="129">
+      <c r="D14" s="118">
         <v>62200000000</v>
       </c>
-      <c r="E14" s="130">
+      <c r="E14" s="119">
         <v>80000000000</v>
       </c>
       <c r="F14" s="43"/>
@@ -14692,31 +14696,31 @@
       <c r="K14" s="58"/>
       <c r="L14" s="42"/>
       <c r="M14" s="42"/>
-      <c r="N14" s="103" t="s">
+      <c r="N14" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="107">
+      <c r="O14" s="103">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
     </row>
     <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="114" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="129">
+      <c r="B15" s="118">
         <v>19200000000</v>
       </c>
-      <c r="C15" s="129">
+      <c r="C15" s="118">
         <v>25200000000</v>
       </c>
-      <c r="D15" s="129">
+      <c r="D15" s="118">
         <v>31700000000</v>
       </c>
-      <c r="E15" s="130">
+      <c r="E15" s="119">
         <v>35200000000</v>
       </c>
       <c r="F15" s="43"/>
@@ -14727,34 +14731,34 @@
       <c r="K15" s="58"/>
       <c r="L15" s="42"/>
       <c r="M15" s="42"/>
-      <c r="N15" s="103" t="s">
+      <c r="N15" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="108" cm="1">
+      <c r="O15" s="104" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.1659999999999999</v>
+        <v>1.1658999999999999</v>
       </c>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
     </row>
     <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="115" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="131">
+      <c r="B16" s="120">
         <f>37700000000+4200000000+18900000000</f>
         <v>60800000000</v>
       </c>
-      <c r="C16" s="131">
+      <c r="C16" s="120">
         <f>15500000000+5900000000+16200000000</f>
         <v>37600000000</v>
       </c>
-      <c r="D16" s="131">
+      <c r="D16" s="120">
         <f>31100000000+3400000000+17000000000</f>
         <v>51500000000</v>
       </c>
-      <c r="E16" s="132">
+      <c r="E16" s="121">
         <f>37700000000+4200000000+18900000000</f>
         <v>60800000000</v>
       </c>
@@ -14766,10 +14770,10 @@
       <c r="K16" s="59"/>
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
-      <c r="N16" s="103" t="s">
+      <c r="N16" s="99" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="107">
+      <c r="O16" s="103">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="35"/>
@@ -14804,20 +14808,20 @@
       <c r="I17" s="52">
         <v>62114000000</v>
       </c>
-      <c r="J17" s="119">
+      <c r="J17" s="111">
         <v>78085000000</v>
       </c>
-      <c r="K17" s="118" t="s">
+      <c r="K17" s="110" t="s">
         <v>238</v>
       </c>
       <c r="L17" s="42"/>
       <c r="M17" s="42"/>
-      <c r="N17" s="109" t="s">
+      <c r="N17" s="105" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="110">
+      <c r="O17" s="106">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.085414E-2</v>
+        <v>9.1098861000000003E-2</v>
       </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
@@ -14864,10 +14868,10 @@
       </c>
       <c r="L18" s="42"/>
       <c r="M18" s="42"/>
-      <c r="N18" s="101" t="s">
+      <c r="N18" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="102"/>
+      <c r="O18" s="132"/>
       <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
@@ -14915,10 +14919,10 @@
       <c r="K19" s="63"/>
       <c r="L19" s="42"/>
       <c r="M19" s="42"/>
-      <c r="N19" s="103" t="s">
+      <c r="N19" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="111">
+      <c r="O19" s="107">
         <f>O6+O7</f>
         <v>138914000000</v>
       </c>
@@ -14962,12 +14966,12 @@
       </c>
       <c r="L20" s="42"/>
       <c r="M20" s="42"/>
-      <c r="N20" s="103" t="s">
+      <c r="N20" s="99" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="111" cm="1">
+      <c r="O20" s="107" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>1519413000000</v>
+        <v>1523442702599</v>
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
@@ -15013,12 +15017,12 @@
         <v>-0.63298617695126347</v>
       </c>
       <c r="M21" s="42"/>
-      <c r="N21" s="103" t="s">
+      <c r="N21" s="99" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="111">
+      <c r="O21" s="107">
         <f>O19+O20</f>
-        <v>1658327000000</v>
+        <v>1662356702599</v>
       </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
@@ -15067,12 +15071,12 @@
       <c r="K22" s="63"/>
       <c r="L22" s="42"/>
       <c r="M22" s="42"/>
-      <c r="N22" s="105" t="s">
+      <c r="N22" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="112">
+      <c r="O22" s="108">
         <f>(O19/O21)</f>
-        <v>8.3767556097199158E-2</v>
+        <v>8.3564495985016862E-2</v>
       </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
@@ -15102,12 +15106,12 @@
       <c r="K23" s="51"/>
       <c r="L23" s="42"/>
       <c r="M23" s="42"/>
-      <c r="N23" s="109" t="s">
+      <c r="N23" s="105" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="113">
+      <c r="O23" s="109">
         <f>O20/O21</f>
-        <v>0.91623244390280079</v>
+        <v>0.91643550401498319</v>
       </c>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
@@ -15127,26 +15131,26 @@
       <c r="K24" s="42"/>
       <c r="L24" s="42"/>
       <c r="M24" s="42"/>
-      <c r="N24" s="114" t="s">
+      <c r="N24" s="123" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="115"/>
+      <c r="O24" s="124"/>
       <c r="P24" s="35"/>
       <c r="Q24" s="35"/>
       <c r="R24" s="35"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="122" t="str" cm="1">
+      <c r="A25" s="133" t="str" cm="1">
         <f t="array" ref="A25">_FV(A1,"Industry")</f>
         <v>Diversified Retail</v>
       </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="123" cm="1">
+      <c r="B25" s="133"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="134" cm="1">
         <f t="array" ref="D25">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1996</v>
       </c>
-      <c r="E25" s="123"/>
+      <c r="E25" s="134"/>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
       <c r="H25" s="42"/>
@@ -15155,24 +15159,24 @@
       <c r="K25" s="42"/>
       <c r="L25" s="42"/>
       <c r="M25" s="42"/>
-      <c r="N25" s="116">
+      <c r="N25" s="125">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.4958923058163022E-2</v>
-      </c>
-      <c r="O25" s="117"/>
+        <v>8.5197484608782653E-2</v>
+      </c>
+      <c r="O25" s="126"/>
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
       <c r="R25" s="35"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="120" t="str" cm="1">
+      <c r="A26" s="122" t="str" cm="1">
         <f t="array" ref="A26">_FV(A1,"Description")</f>
         <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content that it purchased for resale and products offered by third-party sellers. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, and Ring, and it develops and produces media content. It also offers subscription services such as Amazon Prime, a membership program. Its segments include North America, International and Amazon Web Services (AWS). The AWS segment consists of global sales of compute, storage, database, and other services for start-ups, enterprises, government agencies, and academic institutions. It provides advertising services to sellers, vendors, publishers, authors, and others, through programs, such as sponsored advertisements, display, and video advertising. Customers access its offerings through websites, mobile applications, Alexa, devices, streaming, and physically visiting its stores.</v>
       </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
       <c r="H26" s="42"/>
@@ -15188,11 +15192,11 @@
       <c r="R26" s="35"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="120"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="120"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
@@ -15208,11 +15212,11 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="120"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
       <c r="H28" s="42"/>
@@ -15228,11 +15232,11 @@
       <c r="R28" s="35"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="120"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
@@ -15248,11 +15252,11 @@
       <c r="R29" s="35"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="120"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="120"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
@@ -15268,11 +15272,11 @@
       <c r="R30" s="35"/>
     </row>
     <row r="31" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="120"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
+      <c r="A31" s="122"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
@@ -15288,11 +15292,11 @@
       <c r="R31" s="35"/>
     </row>
     <row r="32" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="120"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
+      <c r="A32" s="122"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
@@ -15308,11 +15312,11 @@
       <c r="R32" s="35"/>
     </row>
     <row r="33" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="120"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
+      <c r="A33" s="122"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
       <c r="H33" s="42"/>
@@ -15328,11 +15332,11 @@
       <c r="R33" s="35"/>
     </row>
     <row r="34" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="121"/>
-      <c r="B34" s="121"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="121"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
       <c r="H34" s="42"/>
@@ -15348,11 +15352,11 @@
       <c r="R34" s="35"/>
     </row>
     <row r="35" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="121"/>
-      <c r="B35" s="121"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
+      <c r="A35" s="112"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
       <c r="H35" s="42"/>
@@ -15368,11 +15372,11 @@
       <c r="R35" s="35"/>
     </row>
     <row r="36" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="121"/>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
+      <c r="A36" s="112"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
       <c r="H36" s="42"/>
@@ -16087,6 +16091,7 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A26:E33"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -16096,7 +16101,6 @@
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:AMZN/explorer/revenue_proj" xr:uid="{740D7953-7FC5-B149-8D64-DAB4C3902529}"/>
